--- a/statistics/export/templates/global_month_template.xlsx
+++ b/statistics/export/templates/global_month_template.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>全局市场9月报数据</t>
   </si>
   <si>
-    <t>地市</t>
+    <t>大区</t>
   </si>
   <si>
     <t>地市总数</t>
@@ -34,25 +34,10 @@
     <t>新增学校</t>
   </si>
   <si>
-    <t>教师数量总数</t>
-  </si>
-  <si>
-    <t>新增教师数量</t>
-  </si>
-  <si>
-    <t>在册学生人数</t>
-  </si>
-  <si>
-    <t>新增学生人数</t>
-  </si>
-  <si>
     <t>考试使用总数</t>
   </si>
   <si>
     <t>新增考试次数</t>
-  </si>
-  <si>
-    <t>新增图像数量</t>
   </si>
   <si>
     <t>单词使用总数</t>
@@ -79,13 +64,46 @@
     <t>新增付费</t>
   </si>
   <si>
-    <t>上月</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月/本月</t>
+    </r>
   </si>
   <si>
-    <t>本月</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>本月</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>上月/本月</t>
   </si>
 </sst>
 </file>
@@ -104,7 +122,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="14"/>
@@ -224,34 +242,34 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -324,14 +342,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office 主题">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office 主题">
@@ -515,7 +533,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1086,7 +1104,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1337,56 +1355,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ169"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8571" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.8516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.8516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.8516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.8516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.8516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.8516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.8516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.8516" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.8516" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.8516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.8516" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.8516" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.8516" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.8516" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.8516" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.8516" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.8516" style="1" customWidth="1"/>
-    <col min="34" max="34" width="10.8516" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.8516" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10.8516" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.8516" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.8516" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.8516" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.8516" style="1" customWidth="1"/>
-    <col min="41" max="41" width="10.8516" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.8516" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.8516" style="1" customWidth="1"/>
-    <col min="44" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8672" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8672" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8672" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8672" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8672" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8672" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8672" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8672" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8672" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8672" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8672" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.8672" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.8672" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8672" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.8672" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.8672" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.8672" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.8672" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.8672" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.8672" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.8672" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.8672" style="1" customWidth="1"/>
+    <col min="23" max="256" width="10.8672" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
@@ -1395,16 +1392,16 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1414,272 +1411,136 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" t="s" s="4">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" t="s" s="4">
+      <c r="G2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="H2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="I2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" t="s" s="4">
+      <c r="J2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="N2" t="s" s="4">
+      <c r="K2" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="O2" t="s" s="4">
+      <c r="L2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" t="s" s="4">
+      <c r="M2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="R2" t="s" s="4">
+      <c r="N2" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="S2" t="s" s="4">
+      <c r="O2" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" t="s" s="4">
+      <c r="P2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="V2" t="s" s="4">
+      <c r="Q2" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" t="s" s="4">
+      <c r="R2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="Y2" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="s" s="4">
+      <c r="T2" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" t="s" s="4">
+      <c r="U2" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="V2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="AC2" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="AF2" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="AG2" t="s" s="4">
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="AH2" s="5"/>
-      <c r="AI2" t="s" s="4">
-        <v>4</v>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s" s="5">
+        <v>17</v>
       </c>
-      <c r="AJ2" t="s" s="4">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="AK2" t="s" s="4">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="AL2" s="5"/>
-      <c r="AM2" t="s" s="4">
-        <v>4</v>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" t="s" s="5">
+        <v>19</v>
       </c>
-      <c r="AN2" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="AO2" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" t="s" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="T3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="U3" s="5"/>
-      <c r="V3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="W3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="AA3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="AB3" s="5"/>
-      <c r="AC3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="AD3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="AH3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="AL3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="AP3" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="AQ3" s="5"/>
+      <c r="V3" s="6"/>
     </row>
     <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
     </row>
     <row r="5" ht="13" customHeight="1">
       <c r="A5" s="9"/>
@@ -1704,34 +1565,13 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1749,34 +1589,13 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1794,34 +1613,13 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1839,34 +1637,13 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1884,34 +1661,13 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1929,34 +1685,13 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1974,34 +1709,13 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2019,34 +1733,13 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -2064,34 +1757,13 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2109,34 +1781,13 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2154,34 +1805,13 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2199,34 +1829,13 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2244,34 +1853,13 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2289,34 +1877,13 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
     </row>
     <row r="19" ht="16" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2334,34 +1901,13 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2379,34 +1925,13 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2424,34 +1949,13 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2469,34 +1973,13 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -2514,34 +1997,13 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2559,34 +2021,13 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2604,34 +2045,13 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2649,34 +2069,13 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
     </row>
     <row r="27" ht="16" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2694,34 +2093,13 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2739,34 +2117,13 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="11"/>
-      <c r="AM28" s="11"/>
-      <c r="AN28" s="11"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="11"/>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2784,34 +2141,13 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="11"/>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2829,34 +2165,13 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="11"/>
     </row>
     <row r="31" ht="16" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -2874,34 +2189,13 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="11"/>
-      <c r="AL31" s="11"/>
-      <c r="AM31" s="11"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
-      <c r="AQ31" s="11"/>
     </row>
     <row r="32" ht="16" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -2919,34 +2213,13 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="11"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
     </row>
     <row r="33" ht="16" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -2964,34 +2237,13 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="11"/>
-      <c r="AL33" s="11"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="11"/>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="11"/>
-      <c r="AQ33" s="11"/>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -3009,34 +2261,13 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -3054,34 +2285,13 @@
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
-      <c r="AI35" s="11"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="11"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="11"/>
-      <c r="AO35" s="11"/>
-      <c r="AP35" s="11"/>
-      <c r="AQ35" s="11"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -3099,34 +2309,13 @@
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="11"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="11"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="11"/>
-      <c r="AQ36" s="11"/>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -3144,34 +2333,13 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="11"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="11"/>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="11"/>
-      <c r="AQ37" s="11"/>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -3189,34 +2357,13 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="11"/>
-      <c r="AJ38" s="11"/>
-      <c r="AK38" s="11"/>
-      <c r="AL38" s="11"/>
-      <c r="AM38" s="11"/>
-      <c r="AN38" s="11"/>
-      <c r="AO38" s="11"/>
-      <c r="AP38" s="11"/>
-      <c r="AQ38" s="11"/>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3234,34 +2381,13 @@
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="11"/>
-      <c r="AD39" s="11"/>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="11"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="11"/>
-      <c r="AI39" s="11"/>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="11"/>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="11"/>
-      <c r="AN39" s="11"/>
-      <c r="AO39" s="11"/>
-      <c r="AP39" s="11"/>
-      <c r="AQ39" s="11"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -3279,34 +2405,13 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
-      <c r="AG40" s="11"/>
-      <c r="AH40" s="11"/>
-      <c r="AI40" s="11"/>
-      <c r="AJ40" s="11"/>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="11"/>
-      <c r="AM40" s="11"/>
-      <c r="AN40" s="11"/>
-      <c r="AO40" s="11"/>
-      <c r="AP40" s="11"/>
-      <c r="AQ40" s="11"/>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -3324,34 +2429,13 @@
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="11"/>
-      <c r="AD41" s="11"/>
-      <c r="AE41" s="11"/>
-      <c r="AF41" s="11"/>
-      <c r="AG41" s="11"/>
-      <c r="AH41" s="11"/>
-      <c r="AI41" s="11"/>
-      <c r="AJ41" s="11"/>
-      <c r="AK41" s="11"/>
-      <c r="AL41" s="11"/>
-      <c r="AM41" s="11"/>
-      <c r="AN41" s="11"/>
-      <c r="AO41" s="11"/>
-      <c r="AP41" s="11"/>
-      <c r="AQ41" s="11"/>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -3369,34 +2453,13 @@
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="11"/>
-      <c r="AD42" s="11"/>
-      <c r="AE42" s="11"/>
-      <c r="AF42" s="11"/>
-      <c r="AG42" s="11"/>
-      <c r="AH42" s="11"/>
-      <c r="AI42" s="11"/>
-      <c r="AJ42" s="11"/>
-      <c r="AK42" s="11"/>
-      <c r="AL42" s="11"/>
-      <c r="AM42" s="11"/>
-      <c r="AN42" s="11"/>
-      <c r="AO42" s="11"/>
-      <c r="AP42" s="11"/>
-      <c r="AQ42" s="11"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -3414,34 +2477,13 @@
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="11"/>
-      <c r="AE43" s="11"/>
-      <c r="AF43" s="11"/>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="11"/>
-      <c r="AI43" s="11"/>
-      <c r="AJ43" s="11"/>
-      <c r="AK43" s="11"/>
-      <c r="AL43" s="11"/>
-      <c r="AM43" s="11"/>
-      <c r="AN43" s="11"/>
-      <c r="AO43" s="11"/>
-      <c r="AP43" s="11"/>
-      <c r="AQ43" s="11"/>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -3459,34 +2501,13 @@
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
-      <c r="AF44" s="11"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
-      <c r="AI44" s="11"/>
-      <c r="AJ44" s="11"/>
-      <c r="AK44" s="11"/>
-      <c r="AL44" s="11"/>
-      <c r="AM44" s="11"/>
-      <c r="AN44" s="11"/>
-      <c r="AO44" s="11"/>
-      <c r="AP44" s="11"/>
-      <c r="AQ44" s="11"/>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -3504,34 +2525,13 @@
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11"/>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
-      <c r="AG45" s="11"/>
-      <c r="AH45" s="11"/>
-      <c r="AI45" s="11"/>
-      <c r="AJ45" s="11"/>
-      <c r="AK45" s="11"/>
-      <c r="AL45" s="11"/>
-      <c r="AM45" s="11"/>
-      <c r="AN45" s="11"/>
-      <c r="AO45" s="11"/>
-      <c r="AP45" s="11"/>
-      <c r="AQ45" s="11"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -3549,34 +2549,13 @@
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="11"/>
-      <c r="AI46" s="11"/>
-      <c r="AJ46" s="11"/>
-      <c r="AK46" s="11"/>
-      <c r="AL46" s="11"/>
-      <c r="AM46" s="11"/>
-      <c r="AN46" s="11"/>
-      <c r="AO46" s="11"/>
-      <c r="AP46" s="11"/>
-      <c r="AQ46" s="11"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -3594,34 +2573,13 @@
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
-      <c r="AI47" s="11"/>
-      <c r="AJ47" s="11"/>
-      <c r="AK47" s="11"/>
-      <c r="AL47" s="11"/>
-      <c r="AM47" s="11"/>
-      <c r="AN47" s="11"/>
-      <c r="AO47" s="11"/>
-      <c r="AP47" s="11"/>
-      <c r="AQ47" s="11"/>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -3639,34 +2597,13 @@
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="11"/>
-      <c r="AD48" s="11"/>
-      <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="11"/>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="11"/>
-      <c r="AJ48" s="11"/>
-      <c r="AK48" s="11"/>
-      <c r="AL48" s="11"/>
-      <c r="AM48" s="11"/>
-      <c r="AN48" s="11"/>
-      <c r="AO48" s="11"/>
-      <c r="AP48" s="11"/>
-      <c r="AQ48" s="11"/>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -3684,34 +2621,13 @@
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="11"/>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="11"/>
-      <c r="AL49" s="11"/>
-      <c r="AM49" s="11"/>
-      <c r="AN49" s="11"/>
-      <c r="AO49" s="11"/>
-      <c r="AP49" s="11"/>
-      <c r="AQ49" s="11"/>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -3729,34 +2645,13 @@
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
       <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
-      <c r="AF50" s="11"/>
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="11"/>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="11"/>
-      <c r="AL50" s="11"/>
-      <c r="AM50" s="11"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="11"/>
-      <c r="AP50" s="11"/>
-      <c r="AQ50" s="11"/>
     </row>
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -3774,34 +2669,13 @@
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11"/>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="11"/>
-      <c r="AJ51" s="11"/>
-      <c r="AK51" s="11"/>
-      <c r="AL51" s="11"/>
-      <c r="AM51" s="11"/>
-      <c r="AN51" s="11"/>
-      <c r="AO51" s="11"/>
-      <c r="AP51" s="11"/>
-      <c r="AQ51" s="11"/>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -3819,34 +2693,13 @@
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="11"/>
-      <c r="AI52" s="11"/>
-      <c r="AJ52" s="11"/>
-      <c r="AK52" s="11"/>
-      <c r="AL52" s="11"/>
-      <c r="AM52" s="11"/>
-      <c r="AN52" s="11"/>
-      <c r="AO52" s="11"/>
-      <c r="AP52" s="11"/>
-      <c r="AQ52" s="11"/>
     </row>
     <row r="53" ht="16" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -3864,34 +2717,13 @@
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="11"/>
-      <c r="AL53" s="11"/>
-      <c r="AM53" s="11"/>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
-      <c r="AP53" s="11"/>
-      <c r="AQ53" s="11"/>
     </row>
     <row r="54" ht="16" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -3909,34 +2741,13 @@
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="11"/>
-      <c r="AI54" s="11"/>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="11"/>
-      <c r="AL54" s="11"/>
-      <c r="AM54" s="11"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="11"/>
-      <c r="AQ54" s="11"/>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -3954,34 +2765,13 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="11"/>
-      <c r="AE55" s="11"/>
-      <c r="AF55" s="11"/>
-      <c r="AG55" s="11"/>
-      <c r="AH55" s="11"/>
-      <c r="AI55" s="11"/>
-      <c r="AJ55" s="11"/>
-      <c r="AK55" s="11"/>
-      <c r="AL55" s="11"/>
-      <c r="AM55" s="11"/>
-      <c r="AN55" s="11"/>
-      <c r="AO55" s="11"/>
-      <c r="AP55" s="11"/>
-      <c r="AQ55" s="11"/>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -3999,34 +2789,13 @@
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11"/>
-      <c r="AD56" s="11"/>
-      <c r="AE56" s="11"/>
-      <c r="AF56" s="11"/>
-      <c r="AG56" s="11"/>
-      <c r="AH56" s="11"/>
-      <c r="AI56" s="11"/>
-      <c r="AJ56" s="11"/>
-      <c r="AK56" s="11"/>
-      <c r="AL56" s="11"/>
-      <c r="AM56" s="11"/>
-      <c r="AN56" s="11"/>
-      <c r="AO56" s="11"/>
-      <c r="AP56" s="11"/>
-      <c r="AQ56" s="11"/>
     </row>
     <row r="57" ht="16" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -4044,34 +2813,13 @@
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="11"/>
-      <c r="AF57" s="11"/>
-      <c r="AG57" s="11"/>
-      <c r="AH57" s="11"/>
-      <c r="AI57" s="11"/>
-      <c r="AJ57" s="11"/>
-      <c r="AK57" s="11"/>
-      <c r="AL57" s="11"/>
-      <c r="AM57" s="11"/>
-      <c r="AN57" s="11"/>
-      <c r="AO57" s="11"/>
-      <c r="AP57" s="11"/>
-      <c r="AQ57" s="11"/>
     </row>
     <row r="58" ht="16" customHeight="1">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -4089,34 +2837,13 @@
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11"/>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="11"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
     </row>
     <row r="59" ht="16" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -4134,34 +2861,13 @@
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
-      <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
-      <c r="AG59" s="11"/>
-      <c r="AH59" s="11"/>
-      <c r="AI59" s="11"/>
-      <c r="AJ59" s="11"/>
-      <c r="AK59" s="11"/>
-      <c r="AL59" s="11"/>
-      <c r="AM59" s="11"/>
-      <c r="AN59" s="11"/>
-      <c r="AO59" s="11"/>
-      <c r="AP59" s="11"/>
-      <c r="AQ59" s="11"/>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -4179,34 +2885,13 @@
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
-      <c r="AE60" s="11"/>
-      <c r="AF60" s="11"/>
-      <c r="AG60" s="11"/>
-      <c r="AH60" s="11"/>
-      <c r="AI60" s="11"/>
-      <c r="AJ60" s="11"/>
-      <c r="AK60" s="11"/>
-      <c r="AL60" s="11"/>
-      <c r="AM60" s="11"/>
-      <c r="AN60" s="11"/>
-      <c r="AO60" s="11"/>
-      <c r="AP60" s="11"/>
-      <c r="AQ60" s="11"/>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -4224,34 +2909,13 @@
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="11"/>
-      <c r="AB61" s="11"/>
-      <c r="AC61" s="11"/>
-      <c r="AD61" s="11"/>
-      <c r="AE61" s="11"/>
-      <c r="AF61" s="11"/>
-      <c r="AG61" s="11"/>
-      <c r="AH61" s="11"/>
-      <c r="AI61" s="11"/>
-      <c r="AJ61" s="11"/>
-      <c r="AK61" s="11"/>
-      <c r="AL61" s="11"/>
-      <c r="AM61" s="11"/>
-      <c r="AN61" s="11"/>
-      <c r="AO61" s="11"/>
-      <c r="AP61" s="11"/>
-      <c r="AQ61" s="11"/>
     </row>
     <row r="62" ht="16" customHeight="1">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -4269,34 +2933,13 @@
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
       <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="11"/>
-      <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
-      <c r="AG62" s="11"/>
-      <c r="AH62" s="11"/>
-      <c r="AI62" s="11"/>
-      <c r="AJ62" s="11"/>
-      <c r="AK62" s="11"/>
-      <c r="AL62" s="11"/>
-      <c r="AM62" s="11"/>
-      <c r="AN62" s="11"/>
-      <c r="AO62" s="11"/>
-      <c r="AP62" s="11"/>
-      <c r="AQ62" s="11"/>
     </row>
     <row r="63" ht="16" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -4314,34 +2957,13 @@
       <c r="T63" s="11"/>
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="11"/>
-      <c r="AH63" s="11"/>
-      <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
-      <c r="AK63" s="11"/>
-      <c r="AL63" s="11"/>
-      <c r="AM63" s="11"/>
-      <c r="AN63" s="11"/>
-      <c r="AO63" s="11"/>
-      <c r="AP63" s="11"/>
-      <c r="AQ63" s="11"/>
     </row>
     <row r="64" ht="16" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -4359,34 +2981,13 @@
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="11"/>
-      <c r="AC64" s="11"/>
-      <c r="AD64" s="11"/>
-      <c r="AE64" s="11"/>
-      <c r="AF64" s="11"/>
-      <c r="AG64" s="11"/>
-      <c r="AH64" s="11"/>
-      <c r="AI64" s="11"/>
-      <c r="AJ64" s="11"/>
-      <c r="AK64" s="11"/>
-      <c r="AL64" s="11"/>
-      <c r="AM64" s="11"/>
-      <c r="AN64" s="11"/>
-      <c r="AO64" s="11"/>
-      <c r="AP64" s="11"/>
-      <c r="AQ64" s="11"/>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -4404,34 +3005,13 @@
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="11"/>
-      <c r="AB65" s="11"/>
-      <c r="AC65" s="11"/>
-      <c r="AD65" s="11"/>
-      <c r="AE65" s="11"/>
-      <c r="AF65" s="11"/>
-      <c r="AG65" s="11"/>
-      <c r="AH65" s="11"/>
-      <c r="AI65" s="11"/>
-      <c r="AJ65" s="11"/>
-      <c r="AK65" s="11"/>
-      <c r="AL65" s="11"/>
-      <c r="AM65" s="11"/>
-      <c r="AN65" s="11"/>
-      <c r="AO65" s="11"/>
-      <c r="AP65" s="11"/>
-      <c r="AQ65" s="11"/>
     </row>
     <row r="66" ht="16" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -4449,34 +3029,13 @@
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-      <c r="AA66" s="11"/>
-      <c r="AB66" s="11"/>
-      <c r="AC66" s="11"/>
-      <c r="AD66" s="11"/>
-      <c r="AE66" s="11"/>
-      <c r="AF66" s="11"/>
-      <c r="AG66" s="11"/>
-      <c r="AH66" s="11"/>
-      <c r="AI66" s="11"/>
-      <c r="AJ66" s="11"/>
-      <c r="AK66" s="11"/>
-      <c r="AL66" s="11"/>
-      <c r="AM66" s="11"/>
-      <c r="AN66" s="11"/>
-      <c r="AO66" s="11"/>
-      <c r="AP66" s="11"/>
-      <c r="AQ66" s="11"/>
     </row>
     <row r="67" ht="16" customHeight="1">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -4494,34 +3053,13 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="11"/>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="11"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
-      <c r="AG67" s="11"/>
-      <c r="AH67" s="11"/>
-      <c r="AI67" s="11"/>
-      <c r="AJ67" s="11"/>
-      <c r="AK67" s="11"/>
-      <c r="AL67" s="11"/>
-      <c r="AM67" s="11"/>
-      <c r="AN67" s="11"/>
-      <c r="AO67" s="11"/>
-      <c r="AP67" s="11"/>
-      <c r="AQ67" s="11"/>
     </row>
     <row r="68" ht="16" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -4539,34 +3077,13 @@
       <c r="T68" s="11"/>
       <c r="U68" s="11"/>
       <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="11"/>
-      <c r="Z68" s="11"/>
-      <c r="AA68" s="11"/>
-      <c r="AB68" s="11"/>
-      <c r="AC68" s="11"/>
-      <c r="AD68" s="11"/>
-      <c r="AE68" s="11"/>
-      <c r="AF68" s="11"/>
-      <c r="AG68" s="11"/>
-      <c r="AH68" s="11"/>
-      <c r="AI68" s="11"/>
-      <c r="AJ68" s="11"/>
-      <c r="AK68" s="11"/>
-      <c r="AL68" s="11"/>
-      <c r="AM68" s="11"/>
-      <c r="AN68" s="11"/>
-      <c r="AO68" s="11"/>
-      <c r="AP68" s="11"/>
-      <c r="AQ68" s="11"/>
     </row>
     <row r="69" ht="16" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -4584,34 +3101,13 @@
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
       <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11"/>
-      <c r="AA69" s="11"/>
-      <c r="AB69" s="11"/>
-      <c r="AC69" s="11"/>
-      <c r="AD69" s="11"/>
-      <c r="AE69" s="11"/>
-      <c r="AF69" s="11"/>
-      <c r="AG69" s="11"/>
-      <c r="AH69" s="11"/>
-      <c r="AI69" s="11"/>
-      <c r="AJ69" s="11"/>
-      <c r="AK69" s="11"/>
-      <c r="AL69" s="11"/>
-      <c r="AM69" s="11"/>
-      <c r="AN69" s="11"/>
-      <c r="AO69" s="11"/>
-      <c r="AP69" s="11"/>
-      <c r="AQ69" s="11"/>
     </row>
     <row r="70" ht="16" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -4629,34 +3125,13 @@
       <c r="T70" s="11"/>
       <c r="U70" s="11"/>
       <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="11"/>
-      <c r="Z70" s="11"/>
-      <c r="AA70" s="11"/>
-      <c r="AB70" s="11"/>
-      <c r="AC70" s="11"/>
-      <c r="AD70" s="11"/>
-      <c r="AE70" s="11"/>
-      <c r="AF70" s="11"/>
-      <c r="AG70" s="11"/>
-      <c r="AH70" s="11"/>
-      <c r="AI70" s="11"/>
-      <c r="AJ70" s="11"/>
-      <c r="AK70" s="11"/>
-      <c r="AL70" s="11"/>
-      <c r="AM70" s="11"/>
-      <c r="AN70" s="11"/>
-      <c r="AO70" s="11"/>
-      <c r="AP70" s="11"/>
-      <c r="AQ70" s="11"/>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -4674,34 +3149,13 @@
       <c r="T71" s="11"/>
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-      <c r="AA71" s="11"/>
-      <c r="AB71" s="11"/>
-      <c r="AC71" s="11"/>
-      <c r="AD71" s="11"/>
-      <c r="AE71" s="11"/>
-      <c r="AF71" s="11"/>
-      <c r="AG71" s="11"/>
-      <c r="AH71" s="11"/>
-      <c r="AI71" s="11"/>
-      <c r="AJ71" s="11"/>
-      <c r="AK71" s="11"/>
-      <c r="AL71" s="11"/>
-      <c r="AM71" s="11"/>
-      <c r="AN71" s="11"/>
-      <c r="AO71" s="11"/>
-      <c r="AP71" s="11"/>
-      <c r="AQ71" s="11"/>
     </row>
     <row r="72" ht="16" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -4719,34 +3173,13 @@
       <c r="T72" s="11"/>
       <c r="U72" s="11"/>
       <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-      <c r="AA72" s="11"/>
-      <c r="AB72" s="11"/>
-      <c r="AC72" s="11"/>
-      <c r="AD72" s="11"/>
-      <c r="AE72" s="11"/>
-      <c r="AF72" s="11"/>
-      <c r="AG72" s="11"/>
-      <c r="AH72" s="11"/>
-      <c r="AI72" s="11"/>
-      <c r="AJ72" s="11"/>
-      <c r="AK72" s="11"/>
-      <c r="AL72" s="11"/>
-      <c r="AM72" s="11"/>
-      <c r="AN72" s="11"/>
-      <c r="AO72" s="11"/>
-      <c r="AP72" s="11"/>
-      <c r="AQ72" s="11"/>
     </row>
     <row r="73" ht="16" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -4764,34 +3197,13 @@
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
       <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="11"/>
-      <c r="AB73" s="11"/>
-      <c r="AC73" s="11"/>
-      <c r="AD73" s="11"/>
-      <c r="AE73" s="11"/>
-      <c r="AF73" s="11"/>
-      <c r="AG73" s="11"/>
-      <c r="AH73" s="11"/>
-      <c r="AI73" s="11"/>
-      <c r="AJ73" s="11"/>
-      <c r="AK73" s="11"/>
-      <c r="AL73" s="11"/>
-      <c r="AM73" s="11"/>
-      <c r="AN73" s="11"/>
-      <c r="AO73" s="11"/>
-      <c r="AP73" s="11"/>
-      <c r="AQ73" s="11"/>
     </row>
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -4809,34 +3221,13 @@
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
       <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="11"/>
-      <c r="AB74" s="11"/>
-      <c r="AC74" s="11"/>
-      <c r="AD74" s="11"/>
-      <c r="AE74" s="11"/>
-      <c r="AF74" s="11"/>
-      <c r="AG74" s="11"/>
-      <c r="AH74" s="11"/>
-      <c r="AI74" s="11"/>
-      <c r="AJ74" s="11"/>
-      <c r="AK74" s="11"/>
-      <c r="AL74" s="11"/>
-      <c r="AM74" s="11"/>
-      <c r="AN74" s="11"/>
-      <c r="AO74" s="11"/>
-      <c r="AP74" s="11"/>
-      <c r="AQ74" s="11"/>
     </row>
     <row r="75" ht="16" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -4854,34 +3245,13 @@
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="11"/>
-      <c r="AC75" s="11"/>
-      <c r="AD75" s="11"/>
-      <c r="AE75" s="11"/>
-      <c r="AF75" s="11"/>
-      <c r="AG75" s="11"/>
-      <c r="AH75" s="11"/>
-      <c r="AI75" s="11"/>
-      <c r="AJ75" s="11"/>
-      <c r="AK75" s="11"/>
-      <c r="AL75" s="11"/>
-      <c r="AM75" s="11"/>
-      <c r="AN75" s="11"/>
-      <c r="AO75" s="11"/>
-      <c r="AP75" s="11"/>
-      <c r="AQ75" s="11"/>
     </row>
     <row r="76" ht="16" customHeight="1">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -4899,34 +3269,13 @@
       <c r="T76" s="11"/>
       <c r="U76" s="11"/>
       <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="11"/>
-      <c r="AC76" s="11"/>
-      <c r="AD76" s="11"/>
-      <c r="AE76" s="11"/>
-      <c r="AF76" s="11"/>
-      <c r="AG76" s="11"/>
-      <c r="AH76" s="11"/>
-      <c r="AI76" s="11"/>
-      <c r="AJ76" s="11"/>
-      <c r="AK76" s="11"/>
-      <c r="AL76" s="11"/>
-      <c r="AM76" s="11"/>
-      <c r="AN76" s="11"/>
-      <c r="AO76" s="11"/>
-      <c r="AP76" s="11"/>
-      <c r="AQ76" s="11"/>
     </row>
     <row r="77" ht="16" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -4944,34 +3293,13 @@
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
       <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="11"/>
-      <c r="AB77" s="11"/>
-      <c r="AC77" s="11"/>
-      <c r="AD77" s="11"/>
-      <c r="AE77" s="11"/>
-      <c r="AF77" s="11"/>
-      <c r="AG77" s="11"/>
-      <c r="AH77" s="11"/>
-      <c r="AI77" s="11"/>
-      <c r="AJ77" s="11"/>
-      <c r="AK77" s="11"/>
-      <c r="AL77" s="11"/>
-      <c r="AM77" s="11"/>
-      <c r="AN77" s="11"/>
-      <c r="AO77" s="11"/>
-      <c r="AP77" s="11"/>
-      <c r="AQ77" s="11"/>
     </row>
     <row r="78" ht="16" customHeight="1">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -4989,34 +3317,13 @@
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="11"/>
-      <c r="AD78" s="11"/>
-      <c r="AE78" s="11"/>
-      <c r="AF78" s="11"/>
-      <c r="AG78" s="11"/>
-      <c r="AH78" s="11"/>
-      <c r="AI78" s="11"/>
-      <c r="AJ78" s="11"/>
-      <c r="AK78" s="11"/>
-      <c r="AL78" s="11"/>
-      <c r="AM78" s="11"/>
-      <c r="AN78" s="11"/>
-      <c r="AO78" s="11"/>
-      <c r="AP78" s="11"/>
-      <c r="AQ78" s="11"/>
     </row>
     <row r="79" ht="16" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -5034,34 +3341,13 @@
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
       <c r="V79" s="11"/>
-      <c r="W79" s="11"/>
-      <c r="X79" s="11"/>
-      <c r="Y79" s="11"/>
-      <c r="Z79" s="11"/>
-      <c r="AA79" s="11"/>
-      <c r="AB79" s="11"/>
-      <c r="AC79" s="11"/>
-      <c r="AD79" s="11"/>
-      <c r="AE79" s="11"/>
-      <c r="AF79" s="11"/>
-      <c r="AG79" s="11"/>
-      <c r="AH79" s="11"/>
-      <c r="AI79" s="11"/>
-      <c r="AJ79" s="11"/>
-      <c r="AK79" s="11"/>
-      <c r="AL79" s="11"/>
-      <c r="AM79" s="11"/>
-      <c r="AN79" s="11"/>
-      <c r="AO79" s="11"/>
-      <c r="AP79" s="11"/>
-      <c r="AQ79" s="11"/>
     </row>
     <row r="80" ht="16" customHeight="1">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -5079,34 +3365,13 @@
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="11"/>
-      <c r="Z80" s="11"/>
-      <c r="AA80" s="11"/>
-      <c r="AB80" s="11"/>
-      <c r="AC80" s="11"/>
-      <c r="AD80" s="11"/>
-      <c r="AE80" s="11"/>
-      <c r="AF80" s="11"/>
-      <c r="AG80" s="11"/>
-      <c r="AH80" s="11"/>
-      <c r="AI80" s="11"/>
-      <c r="AJ80" s="11"/>
-      <c r="AK80" s="11"/>
-      <c r="AL80" s="11"/>
-      <c r="AM80" s="11"/>
-      <c r="AN80" s="11"/>
-      <c r="AO80" s="11"/>
-      <c r="AP80" s="11"/>
-      <c r="AQ80" s="11"/>
     </row>
     <row r="81" ht="16" customHeight="1">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -5124,34 +3389,13 @@
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
       <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
-      <c r="X81" s="11"/>
-      <c r="Y81" s="11"/>
-      <c r="Z81" s="11"/>
-      <c r="AA81" s="11"/>
-      <c r="AB81" s="11"/>
-      <c r="AC81" s="11"/>
-      <c r="AD81" s="11"/>
-      <c r="AE81" s="11"/>
-      <c r="AF81" s="11"/>
-      <c r="AG81" s="11"/>
-      <c r="AH81" s="11"/>
-      <c r="AI81" s="11"/>
-      <c r="AJ81" s="11"/>
-      <c r="AK81" s="11"/>
-      <c r="AL81" s="11"/>
-      <c r="AM81" s="11"/>
-      <c r="AN81" s="11"/>
-      <c r="AO81" s="11"/>
-      <c r="AP81" s="11"/>
-      <c r="AQ81" s="11"/>
     </row>
     <row r="82" ht="16" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -5169,34 +3413,13 @@
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
       <c r="V82" s="11"/>
-      <c r="W82" s="11"/>
-      <c r="X82" s="11"/>
-      <c r="Y82" s="11"/>
-      <c r="Z82" s="11"/>
-      <c r="AA82" s="11"/>
-      <c r="AB82" s="11"/>
-      <c r="AC82" s="11"/>
-      <c r="AD82" s="11"/>
-      <c r="AE82" s="11"/>
-      <c r="AF82" s="11"/>
-      <c r="AG82" s="11"/>
-      <c r="AH82" s="11"/>
-      <c r="AI82" s="11"/>
-      <c r="AJ82" s="11"/>
-      <c r="AK82" s="11"/>
-      <c r="AL82" s="11"/>
-      <c r="AM82" s="11"/>
-      <c r="AN82" s="11"/>
-      <c r="AO82" s="11"/>
-      <c r="AP82" s="11"/>
-      <c r="AQ82" s="11"/>
     </row>
     <row r="83" ht="16" customHeight="1">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -5214,34 +3437,13 @@
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
       <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
-      <c r="X83" s="11"/>
-      <c r="Y83" s="11"/>
-      <c r="Z83" s="11"/>
-      <c r="AA83" s="11"/>
-      <c r="AB83" s="11"/>
-      <c r="AC83" s="11"/>
-      <c r="AD83" s="11"/>
-      <c r="AE83" s="11"/>
-      <c r="AF83" s="11"/>
-      <c r="AG83" s="11"/>
-      <c r="AH83" s="11"/>
-      <c r="AI83" s="11"/>
-      <c r="AJ83" s="11"/>
-      <c r="AK83" s="11"/>
-      <c r="AL83" s="11"/>
-      <c r="AM83" s="11"/>
-      <c r="AN83" s="11"/>
-      <c r="AO83" s="11"/>
-      <c r="AP83" s="11"/>
-      <c r="AQ83" s="11"/>
     </row>
     <row r="84" ht="16" customHeight="1">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -5259,34 +3461,13 @@
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
       <c r="V84" s="11"/>
-      <c r="W84" s="11"/>
-      <c r="X84" s="11"/>
-      <c r="Y84" s="11"/>
-      <c r="Z84" s="11"/>
-      <c r="AA84" s="11"/>
-      <c r="AB84" s="11"/>
-      <c r="AC84" s="11"/>
-      <c r="AD84" s="11"/>
-      <c r="AE84" s="11"/>
-      <c r="AF84" s="11"/>
-      <c r="AG84" s="11"/>
-      <c r="AH84" s="11"/>
-      <c r="AI84" s="11"/>
-      <c r="AJ84" s="11"/>
-      <c r="AK84" s="11"/>
-      <c r="AL84" s="11"/>
-      <c r="AM84" s="11"/>
-      <c r="AN84" s="11"/>
-      <c r="AO84" s="11"/>
-      <c r="AP84" s="11"/>
-      <c r="AQ84" s="11"/>
     </row>
     <row r="85" ht="16" customHeight="1">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -5304,34 +3485,13 @@
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
       <c r="V85" s="11"/>
-      <c r="W85" s="11"/>
-      <c r="X85" s="11"/>
-      <c r="Y85" s="11"/>
-      <c r="Z85" s="11"/>
-      <c r="AA85" s="11"/>
-      <c r="AB85" s="11"/>
-      <c r="AC85" s="11"/>
-      <c r="AD85" s="11"/>
-      <c r="AE85" s="11"/>
-      <c r="AF85" s="11"/>
-      <c r="AG85" s="11"/>
-      <c r="AH85" s="11"/>
-      <c r="AI85" s="11"/>
-      <c r="AJ85" s="11"/>
-      <c r="AK85" s="11"/>
-      <c r="AL85" s="11"/>
-      <c r="AM85" s="11"/>
-      <c r="AN85" s="11"/>
-      <c r="AO85" s="11"/>
-      <c r="AP85" s="11"/>
-      <c r="AQ85" s="11"/>
     </row>
     <row r="86" ht="16" customHeight="1">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -5349,34 +3509,13 @@
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
       <c r="V86" s="11"/>
-      <c r="W86" s="11"/>
-      <c r="X86" s="11"/>
-      <c r="Y86" s="11"/>
-      <c r="Z86" s="11"/>
-      <c r="AA86" s="11"/>
-      <c r="AB86" s="11"/>
-      <c r="AC86" s="11"/>
-      <c r="AD86" s="11"/>
-      <c r="AE86" s="11"/>
-      <c r="AF86" s="11"/>
-      <c r="AG86" s="11"/>
-      <c r="AH86" s="11"/>
-      <c r="AI86" s="11"/>
-      <c r="AJ86" s="11"/>
-      <c r="AK86" s="11"/>
-      <c r="AL86" s="11"/>
-      <c r="AM86" s="11"/>
-      <c r="AN86" s="11"/>
-      <c r="AO86" s="11"/>
-      <c r="AP86" s="11"/>
-      <c r="AQ86" s="11"/>
     </row>
     <row r="87" ht="16" customHeight="1">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -5394,34 +3533,13 @@
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
       <c r="V87" s="11"/>
-      <c r="W87" s="11"/>
-      <c r="X87" s="11"/>
-      <c r="Y87" s="11"/>
-      <c r="Z87" s="11"/>
-      <c r="AA87" s="11"/>
-      <c r="AB87" s="11"/>
-      <c r="AC87" s="11"/>
-      <c r="AD87" s="11"/>
-      <c r="AE87" s="11"/>
-      <c r="AF87" s="11"/>
-      <c r="AG87" s="11"/>
-      <c r="AH87" s="11"/>
-      <c r="AI87" s="11"/>
-      <c r="AJ87" s="11"/>
-      <c r="AK87" s="11"/>
-      <c r="AL87" s="11"/>
-      <c r="AM87" s="11"/>
-      <c r="AN87" s="11"/>
-      <c r="AO87" s="11"/>
-      <c r="AP87" s="11"/>
-      <c r="AQ87" s="11"/>
     </row>
     <row r="88" ht="16" customHeight="1">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
@@ -5439,34 +3557,13 @@
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
       <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="11"/>
-      <c r="AA88" s="11"/>
-      <c r="AB88" s="11"/>
-      <c r="AC88" s="11"/>
-      <c r="AD88" s="11"/>
-      <c r="AE88" s="11"/>
-      <c r="AF88" s="11"/>
-      <c r="AG88" s="11"/>
-      <c r="AH88" s="11"/>
-      <c r="AI88" s="11"/>
-      <c r="AJ88" s="11"/>
-      <c r="AK88" s="11"/>
-      <c r="AL88" s="11"/>
-      <c r="AM88" s="11"/>
-      <c r="AN88" s="11"/>
-      <c r="AO88" s="11"/>
-      <c r="AP88" s="11"/>
-      <c r="AQ88" s="11"/>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -5484,34 +3581,13 @@
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
       <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
-      <c r="X89" s="11"/>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="11"/>
-      <c r="AA89" s="11"/>
-      <c r="AB89" s="11"/>
-      <c r="AC89" s="11"/>
-      <c r="AD89" s="11"/>
-      <c r="AE89" s="11"/>
-      <c r="AF89" s="11"/>
-      <c r="AG89" s="11"/>
-      <c r="AH89" s="11"/>
-      <c r="AI89" s="11"/>
-      <c r="AJ89" s="11"/>
-      <c r="AK89" s="11"/>
-      <c r="AL89" s="11"/>
-      <c r="AM89" s="11"/>
-      <c r="AN89" s="11"/>
-      <c r="AO89" s="11"/>
-      <c r="AP89" s="11"/>
-      <c r="AQ89" s="11"/>
     </row>
     <row r="90" ht="16" customHeight="1">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -5529,34 +3605,13 @@
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
       <c r="V90" s="11"/>
-      <c r="W90" s="11"/>
-      <c r="X90" s="11"/>
-      <c r="Y90" s="11"/>
-      <c r="Z90" s="11"/>
-      <c r="AA90" s="11"/>
-      <c r="AB90" s="11"/>
-      <c r="AC90" s="11"/>
-      <c r="AD90" s="11"/>
-      <c r="AE90" s="11"/>
-      <c r="AF90" s="11"/>
-      <c r="AG90" s="11"/>
-      <c r="AH90" s="11"/>
-      <c r="AI90" s="11"/>
-      <c r="AJ90" s="11"/>
-      <c r="AK90" s="11"/>
-      <c r="AL90" s="11"/>
-      <c r="AM90" s="11"/>
-      <c r="AN90" s="11"/>
-      <c r="AO90" s="11"/>
-      <c r="AP90" s="11"/>
-      <c r="AQ90" s="11"/>
     </row>
     <row r="91" ht="16" customHeight="1">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -5574,34 +3629,13 @@
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
       <c r="V91" s="11"/>
-      <c r="W91" s="11"/>
-      <c r="X91" s="11"/>
-      <c r="Y91" s="11"/>
-      <c r="Z91" s="11"/>
-      <c r="AA91" s="11"/>
-      <c r="AB91" s="11"/>
-      <c r="AC91" s="11"/>
-      <c r="AD91" s="11"/>
-      <c r="AE91" s="11"/>
-      <c r="AF91" s="11"/>
-      <c r="AG91" s="11"/>
-      <c r="AH91" s="11"/>
-      <c r="AI91" s="11"/>
-      <c r="AJ91" s="11"/>
-      <c r="AK91" s="11"/>
-      <c r="AL91" s="11"/>
-      <c r="AM91" s="11"/>
-      <c r="AN91" s="11"/>
-      <c r="AO91" s="11"/>
-      <c r="AP91" s="11"/>
-      <c r="AQ91" s="11"/>
     </row>
     <row r="92" ht="16" customHeight="1">
       <c r="A92" s="11"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -5619,34 +3653,13 @@
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
       <c r="V92" s="11"/>
-      <c r="W92" s="11"/>
-      <c r="X92" s="11"/>
-      <c r="Y92" s="11"/>
-      <c r="Z92" s="11"/>
-      <c r="AA92" s="11"/>
-      <c r="AB92" s="11"/>
-      <c r="AC92" s="11"/>
-      <c r="AD92" s="11"/>
-      <c r="AE92" s="11"/>
-      <c r="AF92" s="11"/>
-      <c r="AG92" s="11"/>
-      <c r="AH92" s="11"/>
-      <c r="AI92" s="11"/>
-      <c r="AJ92" s="11"/>
-      <c r="AK92" s="11"/>
-      <c r="AL92" s="11"/>
-      <c r="AM92" s="11"/>
-      <c r="AN92" s="11"/>
-      <c r="AO92" s="11"/>
-      <c r="AP92" s="11"/>
-      <c r="AQ92" s="11"/>
     </row>
     <row r="93" ht="16" customHeight="1">
       <c r="A93" s="11"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
+      <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -5664,34 +3677,13 @@
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
       <c r="V93" s="11"/>
-      <c r="W93" s="11"/>
-      <c r="X93" s="11"/>
-      <c r="Y93" s="11"/>
-      <c r="Z93" s="11"/>
-      <c r="AA93" s="11"/>
-      <c r="AB93" s="11"/>
-      <c r="AC93" s="11"/>
-      <c r="AD93" s="11"/>
-      <c r="AE93" s="11"/>
-      <c r="AF93" s="11"/>
-      <c r="AG93" s="11"/>
-      <c r="AH93" s="11"/>
-      <c r="AI93" s="11"/>
-      <c r="AJ93" s="11"/>
-      <c r="AK93" s="11"/>
-      <c r="AL93" s="11"/>
-      <c r="AM93" s="11"/>
-      <c r="AN93" s="11"/>
-      <c r="AO93" s="11"/>
-      <c r="AP93" s="11"/>
-      <c r="AQ93" s="11"/>
     </row>
     <row r="94" ht="16" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
@@ -5709,34 +3701,13 @@
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
       <c r="V94" s="11"/>
-      <c r="W94" s="11"/>
-      <c r="X94" s="11"/>
-      <c r="Y94" s="11"/>
-      <c r="Z94" s="11"/>
-      <c r="AA94" s="11"/>
-      <c r="AB94" s="11"/>
-      <c r="AC94" s="11"/>
-      <c r="AD94" s="11"/>
-      <c r="AE94" s="11"/>
-      <c r="AF94" s="11"/>
-      <c r="AG94" s="11"/>
-      <c r="AH94" s="11"/>
-      <c r="AI94" s="11"/>
-      <c r="AJ94" s="11"/>
-      <c r="AK94" s="11"/>
-      <c r="AL94" s="11"/>
-      <c r="AM94" s="11"/>
-      <c r="AN94" s="11"/>
-      <c r="AO94" s="11"/>
-      <c r="AP94" s="11"/>
-      <c r="AQ94" s="11"/>
     </row>
     <row r="95" ht="16" customHeight="1">
       <c r="A95" s="11"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
@@ -5754,34 +3725,13 @@
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
       <c r="V95" s="11"/>
-      <c r="W95" s="11"/>
-      <c r="X95" s="11"/>
-      <c r="Y95" s="11"/>
-      <c r="Z95" s="11"/>
-      <c r="AA95" s="11"/>
-      <c r="AB95" s="11"/>
-      <c r="AC95" s="11"/>
-      <c r="AD95" s="11"/>
-      <c r="AE95" s="11"/>
-      <c r="AF95" s="11"/>
-      <c r="AG95" s="11"/>
-      <c r="AH95" s="11"/>
-      <c r="AI95" s="11"/>
-      <c r="AJ95" s="11"/>
-      <c r="AK95" s="11"/>
-      <c r="AL95" s="11"/>
-      <c r="AM95" s="11"/>
-      <c r="AN95" s="11"/>
-      <c r="AO95" s="11"/>
-      <c r="AP95" s="11"/>
-      <c r="AQ95" s="11"/>
     </row>
     <row r="96" ht="16" customHeight="1">
       <c r="A96" s="11"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
+      <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
@@ -5799,34 +3749,13 @@
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
       <c r="V96" s="11"/>
-      <c r="W96" s="11"/>
-      <c r="X96" s="11"/>
-      <c r="Y96" s="11"/>
-      <c r="Z96" s="11"/>
-      <c r="AA96" s="11"/>
-      <c r="AB96" s="11"/>
-      <c r="AC96" s="11"/>
-      <c r="AD96" s="11"/>
-      <c r="AE96" s="11"/>
-      <c r="AF96" s="11"/>
-      <c r="AG96" s="11"/>
-      <c r="AH96" s="11"/>
-      <c r="AI96" s="11"/>
-      <c r="AJ96" s="11"/>
-      <c r="AK96" s="11"/>
-      <c r="AL96" s="11"/>
-      <c r="AM96" s="11"/>
-      <c r="AN96" s="11"/>
-      <c r="AO96" s="11"/>
-      <c r="AP96" s="11"/>
-      <c r="AQ96" s="11"/>
     </row>
     <row r="97" ht="16" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
+      <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -5844,34 +3773,13 @@
       <c r="T97" s="11"/>
       <c r="U97" s="11"/>
       <c r="V97" s="11"/>
-      <c r="W97" s="11"/>
-      <c r="X97" s="11"/>
-      <c r="Y97" s="11"/>
-      <c r="Z97" s="11"/>
-      <c r="AA97" s="11"/>
-      <c r="AB97" s="11"/>
-      <c r="AC97" s="11"/>
-      <c r="AD97" s="11"/>
-      <c r="AE97" s="11"/>
-      <c r="AF97" s="11"/>
-      <c r="AG97" s="11"/>
-      <c r="AH97" s="11"/>
-      <c r="AI97" s="11"/>
-      <c r="AJ97" s="11"/>
-      <c r="AK97" s="11"/>
-      <c r="AL97" s="11"/>
-      <c r="AM97" s="11"/>
-      <c r="AN97" s="11"/>
-      <c r="AO97" s="11"/>
-      <c r="AP97" s="11"/>
-      <c r="AQ97" s="11"/>
     </row>
     <row r="98" ht="16" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -5889,34 +3797,13 @@
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
       <c r="V98" s="11"/>
-      <c r="W98" s="11"/>
-      <c r="X98" s="11"/>
-      <c r="Y98" s="11"/>
-      <c r="Z98" s="11"/>
-      <c r="AA98" s="11"/>
-      <c r="AB98" s="11"/>
-      <c r="AC98" s="11"/>
-      <c r="AD98" s="11"/>
-      <c r="AE98" s="11"/>
-      <c r="AF98" s="11"/>
-      <c r="AG98" s="11"/>
-      <c r="AH98" s="11"/>
-      <c r="AI98" s="11"/>
-      <c r="AJ98" s="11"/>
-      <c r="AK98" s="11"/>
-      <c r="AL98" s="11"/>
-      <c r="AM98" s="11"/>
-      <c r="AN98" s="11"/>
-      <c r="AO98" s="11"/>
-      <c r="AP98" s="11"/>
-      <c r="AQ98" s="11"/>
     </row>
     <row r="99" ht="16" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -5934,34 +3821,13 @@
       <c r="T99" s="11"/>
       <c r="U99" s="11"/>
       <c r="V99" s="11"/>
-      <c r="W99" s="11"/>
-      <c r="X99" s="11"/>
-      <c r="Y99" s="11"/>
-      <c r="Z99" s="11"/>
-      <c r="AA99" s="11"/>
-      <c r="AB99" s="11"/>
-      <c r="AC99" s="11"/>
-      <c r="AD99" s="11"/>
-      <c r="AE99" s="11"/>
-      <c r="AF99" s="11"/>
-      <c r="AG99" s="11"/>
-      <c r="AH99" s="11"/>
-      <c r="AI99" s="11"/>
-      <c r="AJ99" s="11"/>
-      <c r="AK99" s="11"/>
-      <c r="AL99" s="11"/>
-      <c r="AM99" s="11"/>
-      <c r="AN99" s="11"/>
-      <c r="AO99" s="11"/>
-      <c r="AP99" s="11"/>
-      <c r="AQ99" s="11"/>
     </row>
     <row r="100" ht="16" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -5979,34 +3845,13 @@
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
       <c r="V100" s="11"/>
-      <c r="W100" s="11"/>
-      <c r="X100" s="11"/>
-      <c r="Y100" s="11"/>
-      <c r="Z100" s="11"/>
-      <c r="AA100" s="11"/>
-      <c r="AB100" s="11"/>
-      <c r="AC100" s="11"/>
-      <c r="AD100" s="11"/>
-      <c r="AE100" s="11"/>
-      <c r="AF100" s="11"/>
-      <c r="AG100" s="11"/>
-      <c r="AH100" s="11"/>
-      <c r="AI100" s="11"/>
-      <c r="AJ100" s="11"/>
-      <c r="AK100" s="11"/>
-      <c r="AL100" s="11"/>
-      <c r="AM100" s="11"/>
-      <c r="AN100" s="11"/>
-      <c r="AO100" s="11"/>
-      <c r="AP100" s="11"/>
-      <c r="AQ100" s="11"/>
     </row>
     <row r="101" ht="16" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -6024,34 +3869,13 @@
       <c r="T101" s="11"/>
       <c r="U101" s="11"/>
       <c r="V101" s="11"/>
-      <c r="W101" s="11"/>
-      <c r="X101" s="11"/>
-      <c r="Y101" s="11"/>
-      <c r="Z101" s="11"/>
-      <c r="AA101" s="11"/>
-      <c r="AB101" s="11"/>
-      <c r="AC101" s="11"/>
-      <c r="AD101" s="11"/>
-      <c r="AE101" s="11"/>
-      <c r="AF101" s="11"/>
-      <c r="AG101" s="11"/>
-      <c r="AH101" s="11"/>
-      <c r="AI101" s="11"/>
-      <c r="AJ101" s="11"/>
-      <c r="AK101" s="11"/>
-      <c r="AL101" s="11"/>
-      <c r="AM101" s="11"/>
-      <c r="AN101" s="11"/>
-      <c r="AO101" s="11"/>
-      <c r="AP101" s="11"/>
-      <c r="AQ101" s="11"/>
     </row>
     <row r="102" ht="16" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
+      <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -6069,34 +3893,13 @@
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
       <c r="V102" s="11"/>
-      <c r="W102" s="11"/>
-      <c r="X102" s="11"/>
-      <c r="Y102" s="11"/>
-      <c r="Z102" s="11"/>
-      <c r="AA102" s="11"/>
-      <c r="AB102" s="11"/>
-      <c r="AC102" s="11"/>
-      <c r="AD102" s="11"/>
-      <c r="AE102" s="11"/>
-      <c r="AF102" s="11"/>
-      <c r="AG102" s="11"/>
-      <c r="AH102" s="11"/>
-      <c r="AI102" s="11"/>
-      <c r="AJ102" s="11"/>
-      <c r="AK102" s="11"/>
-      <c r="AL102" s="11"/>
-      <c r="AM102" s="11"/>
-      <c r="AN102" s="11"/>
-      <c r="AO102" s="11"/>
-      <c r="AP102" s="11"/>
-      <c r="AQ102" s="11"/>
     </row>
     <row r="103" ht="16" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -6114,34 +3917,13 @@
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
       <c r="V103" s="11"/>
-      <c r="W103" s="11"/>
-      <c r="X103" s="11"/>
-      <c r="Y103" s="11"/>
-      <c r="Z103" s="11"/>
-      <c r="AA103" s="11"/>
-      <c r="AB103" s="11"/>
-      <c r="AC103" s="11"/>
-      <c r="AD103" s="11"/>
-      <c r="AE103" s="11"/>
-      <c r="AF103" s="11"/>
-      <c r="AG103" s="11"/>
-      <c r="AH103" s="11"/>
-      <c r="AI103" s="11"/>
-      <c r="AJ103" s="11"/>
-      <c r="AK103" s="11"/>
-      <c r="AL103" s="11"/>
-      <c r="AM103" s="11"/>
-      <c r="AN103" s="11"/>
-      <c r="AO103" s="11"/>
-      <c r="AP103" s="11"/>
-      <c r="AQ103" s="11"/>
     </row>
     <row r="104" ht="16" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
+      <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -6159,34 +3941,13 @@
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
       <c r="V104" s="11"/>
-      <c r="W104" s="11"/>
-      <c r="X104" s="11"/>
-      <c r="Y104" s="11"/>
-      <c r="Z104" s="11"/>
-      <c r="AA104" s="11"/>
-      <c r="AB104" s="11"/>
-      <c r="AC104" s="11"/>
-      <c r="AD104" s="11"/>
-      <c r="AE104" s="11"/>
-      <c r="AF104" s="11"/>
-      <c r="AG104" s="11"/>
-      <c r="AH104" s="11"/>
-      <c r="AI104" s="11"/>
-      <c r="AJ104" s="11"/>
-      <c r="AK104" s="11"/>
-      <c r="AL104" s="11"/>
-      <c r="AM104" s="11"/>
-      <c r="AN104" s="11"/>
-      <c r="AO104" s="11"/>
-      <c r="AP104" s="11"/>
-      <c r="AQ104" s="11"/>
     </row>
     <row r="105" ht="16" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -6204,34 +3965,13 @@
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
       <c r="V105" s="11"/>
-      <c r="W105" s="11"/>
-      <c r="X105" s="11"/>
-      <c r="Y105" s="11"/>
-      <c r="Z105" s="11"/>
-      <c r="AA105" s="11"/>
-      <c r="AB105" s="11"/>
-      <c r="AC105" s="11"/>
-      <c r="AD105" s="11"/>
-      <c r="AE105" s="11"/>
-      <c r="AF105" s="11"/>
-      <c r="AG105" s="11"/>
-      <c r="AH105" s="11"/>
-      <c r="AI105" s="11"/>
-      <c r="AJ105" s="11"/>
-      <c r="AK105" s="11"/>
-      <c r="AL105" s="11"/>
-      <c r="AM105" s="11"/>
-      <c r="AN105" s="11"/>
-      <c r="AO105" s="11"/>
-      <c r="AP105" s="11"/>
-      <c r="AQ105" s="11"/>
     </row>
     <row r="106" ht="16" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
+      <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
@@ -6249,34 +3989,13 @@
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
       <c r="V106" s="11"/>
-      <c r="W106" s="11"/>
-      <c r="X106" s="11"/>
-      <c r="Y106" s="11"/>
-      <c r="Z106" s="11"/>
-      <c r="AA106" s="11"/>
-      <c r="AB106" s="11"/>
-      <c r="AC106" s="11"/>
-      <c r="AD106" s="11"/>
-      <c r="AE106" s="11"/>
-      <c r="AF106" s="11"/>
-      <c r="AG106" s="11"/>
-      <c r="AH106" s="11"/>
-      <c r="AI106" s="11"/>
-      <c r="AJ106" s="11"/>
-      <c r="AK106" s="11"/>
-      <c r="AL106" s="11"/>
-      <c r="AM106" s="11"/>
-      <c r="AN106" s="11"/>
-      <c r="AO106" s="11"/>
-      <c r="AP106" s="11"/>
-      <c r="AQ106" s="11"/>
     </row>
     <row r="107" ht="16" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
+      <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -6294,34 +4013,13 @@
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
       <c r="V107" s="11"/>
-      <c r="W107" s="11"/>
-      <c r="X107" s="11"/>
-      <c r="Y107" s="11"/>
-      <c r="Z107" s="11"/>
-      <c r="AA107" s="11"/>
-      <c r="AB107" s="11"/>
-      <c r="AC107" s="11"/>
-      <c r="AD107" s="11"/>
-      <c r="AE107" s="11"/>
-      <c r="AF107" s="11"/>
-      <c r="AG107" s="11"/>
-      <c r="AH107" s="11"/>
-      <c r="AI107" s="11"/>
-      <c r="AJ107" s="11"/>
-      <c r="AK107" s="11"/>
-      <c r="AL107" s="11"/>
-      <c r="AM107" s="11"/>
-      <c r="AN107" s="11"/>
-      <c r="AO107" s="11"/>
-      <c r="AP107" s="11"/>
-      <c r="AQ107" s="11"/>
     </row>
     <row r="108" ht="16" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
+      <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -6339,34 +4037,13 @@
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
       <c r="V108" s="11"/>
-      <c r="W108" s="11"/>
-      <c r="X108" s="11"/>
-      <c r="Y108" s="11"/>
-      <c r="Z108" s="11"/>
-      <c r="AA108" s="11"/>
-      <c r="AB108" s="11"/>
-      <c r="AC108" s="11"/>
-      <c r="AD108" s="11"/>
-      <c r="AE108" s="11"/>
-      <c r="AF108" s="11"/>
-      <c r="AG108" s="11"/>
-      <c r="AH108" s="11"/>
-      <c r="AI108" s="11"/>
-      <c r="AJ108" s="11"/>
-      <c r="AK108" s="11"/>
-      <c r="AL108" s="11"/>
-      <c r="AM108" s="11"/>
-      <c r="AN108" s="11"/>
-      <c r="AO108" s="11"/>
-      <c r="AP108" s="11"/>
-      <c r="AQ108" s="11"/>
     </row>
     <row r="109" ht="16" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
+      <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -6384,34 +4061,13 @@
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
       <c r="V109" s="11"/>
-      <c r="W109" s="11"/>
-      <c r="X109" s="11"/>
-      <c r="Y109" s="11"/>
-      <c r="Z109" s="11"/>
-      <c r="AA109" s="11"/>
-      <c r="AB109" s="11"/>
-      <c r="AC109" s="11"/>
-      <c r="AD109" s="11"/>
-      <c r="AE109" s="11"/>
-      <c r="AF109" s="11"/>
-      <c r="AG109" s="11"/>
-      <c r="AH109" s="11"/>
-      <c r="AI109" s="11"/>
-      <c r="AJ109" s="11"/>
-      <c r="AK109" s="11"/>
-      <c r="AL109" s="11"/>
-      <c r="AM109" s="11"/>
-      <c r="AN109" s="11"/>
-      <c r="AO109" s="11"/>
-      <c r="AP109" s="11"/>
-      <c r="AQ109" s="11"/>
     </row>
     <row r="110" ht="16" customHeight="1">
       <c r="A110" s="11"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
+      <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
@@ -6429,34 +4085,13 @@
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
       <c r="V110" s="11"/>
-      <c r="W110" s="11"/>
-      <c r="X110" s="11"/>
-      <c r="Y110" s="11"/>
-      <c r="Z110" s="11"/>
-      <c r="AA110" s="11"/>
-      <c r="AB110" s="11"/>
-      <c r="AC110" s="11"/>
-      <c r="AD110" s="11"/>
-      <c r="AE110" s="11"/>
-      <c r="AF110" s="11"/>
-      <c r="AG110" s="11"/>
-      <c r="AH110" s="11"/>
-      <c r="AI110" s="11"/>
-      <c r="AJ110" s="11"/>
-      <c r="AK110" s="11"/>
-      <c r="AL110" s="11"/>
-      <c r="AM110" s="11"/>
-      <c r="AN110" s="11"/>
-      <c r="AO110" s="11"/>
-      <c r="AP110" s="11"/>
-      <c r="AQ110" s="11"/>
     </row>
     <row r="111" ht="16" customHeight="1">
       <c r="A111" s="11"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
+      <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -6474,34 +4109,13 @@
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
       <c r="V111" s="11"/>
-      <c r="W111" s="11"/>
-      <c r="X111" s="11"/>
-      <c r="Y111" s="11"/>
-      <c r="Z111" s="11"/>
-      <c r="AA111" s="11"/>
-      <c r="AB111" s="11"/>
-      <c r="AC111" s="11"/>
-      <c r="AD111" s="11"/>
-      <c r="AE111" s="11"/>
-      <c r="AF111" s="11"/>
-      <c r="AG111" s="11"/>
-      <c r="AH111" s="11"/>
-      <c r="AI111" s="11"/>
-      <c r="AJ111" s="11"/>
-      <c r="AK111" s="11"/>
-      <c r="AL111" s="11"/>
-      <c r="AM111" s="11"/>
-      <c r="AN111" s="11"/>
-      <c r="AO111" s="11"/>
-      <c r="AP111" s="11"/>
-      <c r="AQ111" s="11"/>
     </row>
     <row r="112" ht="16" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
+      <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -6519,34 +4133,13 @@
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
       <c r="V112" s="11"/>
-      <c r="W112" s="11"/>
-      <c r="X112" s="11"/>
-      <c r="Y112" s="11"/>
-      <c r="Z112" s="11"/>
-      <c r="AA112" s="11"/>
-      <c r="AB112" s="11"/>
-      <c r="AC112" s="11"/>
-      <c r="AD112" s="11"/>
-      <c r="AE112" s="11"/>
-      <c r="AF112" s="11"/>
-      <c r="AG112" s="11"/>
-      <c r="AH112" s="11"/>
-      <c r="AI112" s="11"/>
-      <c r="AJ112" s="11"/>
-      <c r="AK112" s="11"/>
-      <c r="AL112" s="11"/>
-      <c r="AM112" s="11"/>
-      <c r="AN112" s="11"/>
-      <c r="AO112" s="11"/>
-      <c r="AP112" s="11"/>
-      <c r="AQ112" s="11"/>
     </row>
     <row r="113" ht="16" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
+      <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -6564,34 +4157,13 @@
       <c r="T113" s="11"/>
       <c r="U113" s="11"/>
       <c r="V113" s="11"/>
-      <c r="W113" s="11"/>
-      <c r="X113" s="11"/>
-      <c r="Y113" s="11"/>
-      <c r="Z113" s="11"/>
-      <c r="AA113" s="11"/>
-      <c r="AB113" s="11"/>
-      <c r="AC113" s="11"/>
-      <c r="AD113" s="11"/>
-      <c r="AE113" s="11"/>
-      <c r="AF113" s="11"/>
-      <c r="AG113" s="11"/>
-      <c r="AH113" s="11"/>
-      <c r="AI113" s="11"/>
-      <c r="AJ113" s="11"/>
-      <c r="AK113" s="11"/>
-      <c r="AL113" s="11"/>
-      <c r="AM113" s="11"/>
-      <c r="AN113" s="11"/>
-      <c r="AO113" s="11"/>
-      <c r="AP113" s="11"/>
-      <c r="AQ113" s="11"/>
     </row>
     <row r="114" ht="16" customHeight="1">
       <c r="A114" s="11"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
+      <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -6609,34 +4181,13 @@
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
       <c r="V114" s="11"/>
-      <c r="W114" s="11"/>
-      <c r="X114" s="11"/>
-      <c r="Y114" s="11"/>
-      <c r="Z114" s="11"/>
-      <c r="AA114" s="11"/>
-      <c r="AB114" s="11"/>
-      <c r="AC114" s="11"/>
-      <c r="AD114" s="11"/>
-      <c r="AE114" s="11"/>
-      <c r="AF114" s="11"/>
-      <c r="AG114" s="11"/>
-      <c r="AH114" s="11"/>
-      <c r="AI114" s="11"/>
-      <c r="AJ114" s="11"/>
-      <c r="AK114" s="11"/>
-      <c r="AL114" s="11"/>
-      <c r="AM114" s="11"/>
-      <c r="AN114" s="11"/>
-      <c r="AO114" s="11"/>
-      <c r="AP114" s="11"/>
-      <c r="AQ114" s="11"/>
     </row>
     <row r="115" ht="16" customHeight="1">
       <c r="A115" s="11"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
+      <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -6654,34 +4205,13 @@
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
       <c r="V115" s="11"/>
-      <c r="W115" s="11"/>
-      <c r="X115" s="11"/>
-      <c r="Y115" s="11"/>
-      <c r="Z115" s="11"/>
-      <c r="AA115" s="11"/>
-      <c r="AB115" s="11"/>
-      <c r="AC115" s="11"/>
-      <c r="AD115" s="11"/>
-      <c r="AE115" s="11"/>
-      <c r="AF115" s="11"/>
-      <c r="AG115" s="11"/>
-      <c r="AH115" s="11"/>
-      <c r="AI115" s="11"/>
-      <c r="AJ115" s="11"/>
-      <c r="AK115" s="11"/>
-      <c r="AL115" s="11"/>
-      <c r="AM115" s="11"/>
-      <c r="AN115" s="11"/>
-      <c r="AO115" s="11"/>
-      <c r="AP115" s="11"/>
-      <c r="AQ115" s="11"/>
     </row>
     <row r="116" ht="16" customHeight="1">
       <c r="A116" s="11"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
+      <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -6699,34 +4229,13 @@
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
       <c r="V116" s="11"/>
-      <c r="W116" s="11"/>
-      <c r="X116" s="11"/>
-      <c r="Y116" s="11"/>
-      <c r="Z116" s="11"/>
-      <c r="AA116" s="11"/>
-      <c r="AB116" s="11"/>
-      <c r="AC116" s="11"/>
-      <c r="AD116" s="11"/>
-      <c r="AE116" s="11"/>
-      <c r="AF116" s="11"/>
-      <c r="AG116" s="11"/>
-      <c r="AH116" s="11"/>
-      <c r="AI116" s="11"/>
-      <c r="AJ116" s="11"/>
-      <c r="AK116" s="11"/>
-      <c r="AL116" s="11"/>
-      <c r="AM116" s="11"/>
-      <c r="AN116" s="11"/>
-      <c r="AO116" s="11"/>
-      <c r="AP116" s="11"/>
-      <c r="AQ116" s="11"/>
     </row>
     <row r="117" ht="16" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
+      <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -6744,34 +4253,13 @@
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
       <c r="V117" s="11"/>
-      <c r="W117" s="11"/>
-      <c r="X117" s="11"/>
-      <c r="Y117" s="11"/>
-      <c r="Z117" s="11"/>
-      <c r="AA117" s="11"/>
-      <c r="AB117" s="11"/>
-      <c r="AC117" s="11"/>
-      <c r="AD117" s="11"/>
-      <c r="AE117" s="11"/>
-      <c r="AF117" s="11"/>
-      <c r="AG117" s="11"/>
-      <c r="AH117" s="11"/>
-      <c r="AI117" s="11"/>
-      <c r="AJ117" s="11"/>
-      <c r="AK117" s="11"/>
-      <c r="AL117" s="11"/>
-      <c r="AM117" s="11"/>
-      <c r="AN117" s="11"/>
-      <c r="AO117" s="11"/>
-      <c r="AP117" s="11"/>
-      <c r="AQ117" s="11"/>
     </row>
     <row r="118" ht="16" customHeight="1">
       <c r="A118" s="11"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
+      <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -6789,34 +4277,13 @@
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
       <c r="V118" s="11"/>
-      <c r="W118" s="11"/>
-      <c r="X118" s="11"/>
-      <c r="Y118" s="11"/>
-      <c r="Z118" s="11"/>
-      <c r="AA118" s="11"/>
-      <c r="AB118" s="11"/>
-      <c r="AC118" s="11"/>
-      <c r="AD118" s="11"/>
-      <c r="AE118" s="11"/>
-      <c r="AF118" s="11"/>
-      <c r="AG118" s="11"/>
-      <c r="AH118" s="11"/>
-      <c r="AI118" s="11"/>
-      <c r="AJ118" s="11"/>
-      <c r="AK118" s="11"/>
-      <c r="AL118" s="11"/>
-      <c r="AM118" s="11"/>
-      <c r="AN118" s="11"/>
-      <c r="AO118" s="11"/>
-      <c r="AP118" s="11"/>
-      <c r="AQ118" s="11"/>
     </row>
     <row r="119" ht="16" customHeight="1">
       <c r="A119" s="11"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -6834,34 +4301,13 @@
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
       <c r="V119" s="11"/>
-      <c r="W119" s="11"/>
-      <c r="X119" s="11"/>
-      <c r="Y119" s="11"/>
-      <c r="Z119" s="11"/>
-      <c r="AA119" s="11"/>
-      <c r="AB119" s="11"/>
-      <c r="AC119" s="11"/>
-      <c r="AD119" s="11"/>
-      <c r="AE119" s="11"/>
-      <c r="AF119" s="11"/>
-      <c r="AG119" s="11"/>
-      <c r="AH119" s="11"/>
-      <c r="AI119" s="11"/>
-      <c r="AJ119" s="11"/>
-      <c r="AK119" s="11"/>
-      <c r="AL119" s="11"/>
-      <c r="AM119" s="11"/>
-      <c r="AN119" s="11"/>
-      <c r="AO119" s="11"/>
-      <c r="AP119" s="11"/>
-      <c r="AQ119" s="11"/>
     </row>
     <row r="120" ht="16" customHeight="1">
       <c r="A120" s="11"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
+      <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -6879,34 +4325,13 @@
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
       <c r="V120" s="11"/>
-      <c r="W120" s="11"/>
-      <c r="X120" s="11"/>
-      <c r="Y120" s="11"/>
-      <c r="Z120" s="11"/>
-      <c r="AA120" s="11"/>
-      <c r="AB120" s="11"/>
-      <c r="AC120" s="11"/>
-      <c r="AD120" s="11"/>
-      <c r="AE120" s="11"/>
-      <c r="AF120" s="11"/>
-      <c r="AG120" s="11"/>
-      <c r="AH120" s="11"/>
-      <c r="AI120" s="11"/>
-      <c r="AJ120" s="11"/>
-      <c r="AK120" s="11"/>
-      <c r="AL120" s="11"/>
-      <c r="AM120" s="11"/>
-      <c r="AN120" s="11"/>
-      <c r="AO120" s="11"/>
-      <c r="AP120" s="11"/>
-      <c r="AQ120" s="11"/>
     </row>
     <row r="121" ht="16" customHeight="1">
       <c r="A121" s="11"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
+      <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
@@ -6924,34 +4349,13 @@
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
       <c r="V121" s="11"/>
-      <c r="W121" s="11"/>
-      <c r="X121" s="11"/>
-      <c r="Y121" s="11"/>
-      <c r="Z121" s="11"/>
-      <c r="AA121" s="11"/>
-      <c r="AB121" s="11"/>
-      <c r="AC121" s="11"/>
-      <c r="AD121" s="11"/>
-      <c r="AE121" s="11"/>
-      <c r="AF121" s="11"/>
-      <c r="AG121" s="11"/>
-      <c r="AH121" s="11"/>
-      <c r="AI121" s="11"/>
-      <c r="AJ121" s="11"/>
-      <c r="AK121" s="11"/>
-      <c r="AL121" s="11"/>
-      <c r="AM121" s="11"/>
-      <c r="AN121" s="11"/>
-      <c r="AO121" s="11"/>
-      <c r="AP121" s="11"/>
-      <c r="AQ121" s="11"/>
     </row>
     <row r="122" ht="16" customHeight="1">
       <c r="A122" s="11"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
+      <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
@@ -6969,34 +4373,13 @@
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
       <c r="V122" s="11"/>
-      <c r="W122" s="11"/>
-      <c r="X122" s="11"/>
-      <c r="Y122" s="11"/>
-      <c r="Z122" s="11"/>
-      <c r="AA122" s="11"/>
-      <c r="AB122" s="11"/>
-      <c r="AC122" s="11"/>
-      <c r="AD122" s="11"/>
-      <c r="AE122" s="11"/>
-      <c r="AF122" s="11"/>
-      <c r="AG122" s="11"/>
-      <c r="AH122" s="11"/>
-      <c r="AI122" s="11"/>
-      <c r="AJ122" s="11"/>
-      <c r="AK122" s="11"/>
-      <c r="AL122" s="11"/>
-      <c r="AM122" s="11"/>
-      <c r="AN122" s="11"/>
-      <c r="AO122" s="11"/>
-      <c r="AP122" s="11"/>
-      <c r="AQ122" s="11"/>
     </row>
     <row r="123" ht="16" customHeight="1">
       <c r="A123" s="11"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
+      <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
@@ -7014,34 +4397,13 @@
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
       <c r="V123" s="11"/>
-      <c r="W123" s="11"/>
-      <c r="X123" s="11"/>
-      <c r="Y123" s="11"/>
-      <c r="Z123" s="11"/>
-      <c r="AA123" s="11"/>
-      <c r="AB123" s="11"/>
-      <c r="AC123" s="11"/>
-      <c r="AD123" s="11"/>
-      <c r="AE123" s="11"/>
-      <c r="AF123" s="11"/>
-      <c r="AG123" s="11"/>
-      <c r="AH123" s="11"/>
-      <c r="AI123" s="11"/>
-      <c r="AJ123" s="11"/>
-      <c r="AK123" s="11"/>
-      <c r="AL123" s="11"/>
-      <c r="AM123" s="11"/>
-      <c r="AN123" s="11"/>
-      <c r="AO123" s="11"/>
-      <c r="AP123" s="11"/>
-      <c r="AQ123" s="11"/>
     </row>
     <row r="124" ht="16" customHeight="1">
       <c r="A124" s="11"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
+      <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
@@ -7059,34 +4421,13 @@
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
       <c r="V124" s="11"/>
-      <c r="W124" s="11"/>
-      <c r="X124" s="11"/>
-      <c r="Y124" s="11"/>
-      <c r="Z124" s="11"/>
-      <c r="AA124" s="11"/>
-      <c r="AB124" s="11"/>
-      <c r="AC124" s="11"/>
-      <c r="AD124" s="11"/>
-      <c r="AE124" s="11"/>
-      <c r="AF124" s="11"/>
-      <c r="AG124" s="11"/>
-      <c r="AH124" s="11"/>
-      <c r="AI124" s="11"/>
-      <c r="AJ124" s="11"/>
-      <c r="AK124" s="11"/>
-      <c r="AL124" s="11"/>
-      <c r="AM124" s="11"/>
-      <c r="AN124" s="11"/>
-      <c r="AO124" s="11"/>
-      <c r="AP124" s="11"/>
-      <c r="AQ124" s="11"/>
     </row>
     <row r="125" ht="16" customHeight="1">
       <c r="A125" s="11"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
+      <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -7104,34 +4445,13 @@
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
       <c r="V125" s="11"/>
-      <c r="W125" s="11"/>
-      <c r="X125" s="11"/>
-      <c r="Y125" s="11"/>
-      <c r="Z125" s="11"/>
-      <c r="AA125" s="11"/>
-      <c r="AB125" s="11"/>
-      <c r="AC125" s="11"/>
-      <c r="AD125" s="11"/>
-      <c r="AE125" s="11"/>
-      <c r="AF125" s="11"/>
-      <c r="AG125" s="11"/>
-      <c r="AH125" s="11"/>
-      <c r="AI125" s="11"/>
-      <c r="AJ125" s="11"/>
-      <c r="AK125" s="11"/>
-      <c r="AL125" s="11"/>
-      <c r="AM125" s="11"/>
-      <c r="AN125" s="11"/>
-      <c r="AO125" s="11"/>
-      <c r="AP125" s="11"/>
-      <c r="AQ125" s="11"/>
     </row>
     <row r="126" ht="16" customHeight="1">
       <c r="A126" s="11"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
+      <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
@@ -7149,34 +4469,13 @@
       <c r="T126" s="11"/>
       <c r="U126" s="11"/>
       <c r="V126" s="11"/>
-      <c r="W126" s="11"/>
-      <c r="X126" s="11"/>
-      <c r="Y126" s="11"/>
-      <c r="Z126" s="11"/>
-      <c r="AA126" s="11"/>
-      <c r="AB126" s="11"/>
-      <c r="AC126" s="11"/>
-      <c r="AD126" s="11"/>
-      <c r="AE126" s="11"/>
-      <c r="AF126" s="11"/>
-      <c r="AG126" s="11"/>
-      <c r="AH126" s="11"/>
-      <c r="AI126" s="11"/>
-      <c r="AJ126" s="11"/>
-      <c r="AK126" s="11"/>
-      <c r="AL126" s="11"/>
-      <c r="AM126" s="11"/>
-      <c r="AN126" s="11"/>
-      <c r="AO126" s="11"/>
-      <c r="AP126" s="11"/>
-      <c r="AQ126" s="11"/>
     </row>
     <row r="127" ht="16" customHeight="1">
       <c r="A127" s="11"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
+      <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
@@ -7194,34 +4493,13 @@
       <c r="T127" s="11"/>
       <c r="U127" s="11"/>
       <c r="V127" s="11"/>
-      <c r="W127" s="11"/>
-      <c r="X127" s="11"/>
-      <c r="Y127" s="11"/>
-      <c r="Z127" s="11"/>
-      <c r="AA127" s="11"/>
-      <c r="AB127" s="11"/>
-      <c r="AC127" s="11"/>
-      <c r="AD127" s="11"/>
-      <c r="AE127" s="11"/>
-      <c r="AF127" s="11"/>
-      <c r="AG127" s="11"/>
-      <c r="AH127" s="11"/>
-      <c r="AI127" s="11"/>
-      <c r="AJ127" s="11"/>
-      <c r="AK127" s="11"/>
-      <c r="AL127" s="11"/>
-      <c r="AM127" s="11"/>
-      <c r="AN127" s="11"/>
-      <c r="AO127" s="11"/>
-      <c r="AP127" s="11"/>
-      <c r="AQ127" s="11"/>
     </row>
     <row r="128" ht="16" customHeight="1">
       <c r="A128" s="11"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
+      <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
@@ -7239,34 +4517,13 @@
       <c r="T128" s="11"/>
       <c r="U128" s="11"/>
       <c r="V128" s="11"/>
-      <c r="W128" s="11"/>
-      <c r="X128" s="11"/>
-      <c r="Y128" s="11"/>
-      <c r="Z128" s="11"/>
-      <c r="AA128" s="11"/>
-      <c r="AB128" s="11"/>
-      <c r="AC128" s="11"/>
-      <c r="AD128" s="11"/>
-      <c r="AE128" s="11"/>
-      <c r="AF128" s="11"/>
-      <c r="AG128" s="11"/>
-      <c r="AH128" s="11"/>
-      <c r="AI128" s="11"/>
-      <c r="AJ128" s="11"/>
-      <c r="AK128" s="11"/>
-      <c r="AL128" s="11"/>
-      <c r="AM128" s="11"/>
-      <c r="AN128" s="11"/>
-      <c r="AO128" s="11"/>
-      <c r="AP128" s="11"/>
-      <c r="AQ128" s="11"/>
     </row>
     <row r="129" ht="16" customHeight="1">
       <c r="A129" s="11"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
+      <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -7284,34 +4541,13 @@
       <c r="T129" s="11"/>
       <c r="U129" s="11"/>
       <c r="V129" s="11"/>
-      <c r="W129" s="11"/>
-      <c r="X129" s="11"/>
-      <c r="Y129" s="11"/>
-      <c r="Z129" s="11"/>
-      <c r="AA129" s="11"/>
-      <c r="AB129" s="11"/>
-      <c r="AC129" s="11"/>
-      <c r="AD129" s="11"/>
-      <c r="AE129" s="11"/>
-      <c r="AF129" s="11"/>
-      <c r="AG129" s="11"/>
-      <c r="AH129" s="11"/>
-      <c r="AI129" s="11"/>
-      <c r="AJ129" s="11"/>
-      <c r="AK129" s="11"/>
-      <c r="AL129" s="11"/>
-      <c r="AM129" s="11"/>
-      <c r="AN129" s="11"/>
-      <c r="AO129" s="11"/>
-      <c r="AP129" s="11"/>
-      <c r="AQ129" s="11"/>
     </row>
     <row r="130" ht="16" customHeight="1">
       <c r="A130" s="11"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
+      <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
@@ -7329,34 +4565,13 @@
       <c r="T130" s="11"/>
       <c r="U130" s="11"/>
       <c r="V130" s="11"/>
-      <c r="W130" s="11"/>
-      <c r="X130" s="11"/>
-      <c r="Y130" s="11"/>
-      <c r="Z130" s="11"/>
-      <c r="AA130" s="11"/>
-      <c r="AB130" s="11"/>
-      <c r="AC130" s="11"/>
-      <c r="AD130" s="11"/>
-      <c r="AE130" s="11"/>
-      <c r="AF130" s="11"/>
-      <c r="AG130" s="11"/>
-      <c r="AH130" s="11"/>
-      <c r="AI130" s="11"/>
-      <c r="AJ130" s="11"/>
-      <c r="AK130" s="11"/>
-      <c r="AL130" s="11"/>
-      <c r="AM130" s="11"/>
-      <c r="AN130" s="11"/>
-      <c r="AO130" s="11"/>
-      <c r="AP130" s="11"/>
-      <c r="AQ130" s="11"/>
     </row>
     <row r="131" ht="16" customHeight="1">
       <c r="A131" s="11"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
+      <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -7374,34 +4589,13 @@
       <c r="T131" s="11"/>
       <c r="U131" s="11"/>
       <c r="V131" s="11"/>
-      <c r="W131" s="11"/>
-      <c r="X131" s="11"/>
-      <c r="Y131" s="11"/>
-      <c r="Z131" s="11"/>
-      <c r="AA131" s="11"/>
-      <c r="AB131" s="11"/>
-      <c r="AC131" s="11"/>
-      <c r="AD131" s="11"/>
-      <c r="AE131" s="11"/>
-      <c r="AF131" s="11"/>
-      <c r="AG131" s="11"/>
-      <c r="AH131" s="11"/>
-      <c r="AI131" s="11"/>
-      <c r="AJ131" s="11"/>
-      <c r="AK131" s="11"/>
-      <c r="AL131" s="11"/>
-      <c r="AM131" s="11"/>
-      <c r="AN131" s="11"/>
-      <c r="AO131" s="11"/>
-      <c r="AP131" s="11"/>
-      <c r="AQ131" s="11"/>
     </row>
     <row r="132" ht="16" customHeight="1">
       <c r="A132" s="11"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
+      <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
@@ -7419,34 +4613,13 @@
       <c r="T132" s="11"/>
       <c r="U132" s="11"/>
       <c r="V132" s="11"/>
-      <c r="W132" s="11"/>
-      <c r="X132" s="11"/>
-      <c r="Y132" s="11"/>
-      <c r="Z132" s="11"/>
-      <c r="AA132" s="11"/>
-      <c r="AB132" s="11"/>
-      <c r="AC132" s="11"/>
-      <c r="AD132" s="11"/>
-      <c r="AE132" s="11"/>
-      <c r="AF132" s="11"/>
-      <c r="AG132" s="11"/>
-      <c r="AH132" s="11"/>
-      <c r="AI132" s="11"/>
-      <c r="AJ132" s="11"/>
-      <c r="AK132" s="11"/>
-      <c r="AL132" s="11"/>
-      <c r="AM132" s="11"/>
-      <c r="AN132" s="11"/>
-      <c r="AO132" s="11"/>
-      <c r="AP132" s="11"/>
-      <c r="AQ132" s="11"/>
     </row>
     <row r="133" ht="16" customHeight="1">
       <c r="A133" s="11"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
+      <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
@@ -7464,34 +4637,13 @@
       <c r="T133" s="11"/>
       <c r="U133" s="11"/>
       <c r="V133" s="11"/>
-      <c r="W133" s="11"/>
-      <c r="X133" s="11"/>
-      <c r="Y133" s="11"/>
-      <c r="Z133" s="11"/>
-      <c r="AA133" s="11"/>
-      <c r="AB133" s="11"/>
-      <c r="AC133" s="11"/>
-      <c r="AD133" s="11"/>
-      <c r="AE133" s="11"/>
-      <c r="AF133" s="11"/>
-      <c r="AG133" s="11"/>
-      <c r="AH133" s="11"/>
-      <c r="AI133" s="11"/>
-      <c r="AJ133" s="11"/>
-      <c r="AK133" s="11"/>
-      <c r="AL133" s="11"/>
-      <c r="AM133" s="11"/>
-      <c r="AN133" s="11"/>
-      <c r="AO133" s="11"/>
-      <c r="AP133" s="11"/>
-      <c r="AQ133" s="11"/>
     </row>
     <row r="134" ht="16" customHeight="1">
       <c r="A134" s="11"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
+      <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
@@ -7509,34 +4661,13 @@
       <c r="T134" s="11"/>
       <c r="U134" s="11"/>
       <c r="V134" s="11"/>
-      <c r="W134" s="11"/>
-      <c r="X134" s="11"/>
-      <c r="Y134" s="11"/>
-      <c r="Z134" s="11"/>
-      <c r="AA134" s="11"/>
-      <c r="AB134" s="11"/>
-      <c r="AC134" s="11"/>
-      <c r="AD134" s="11"/>
-      <c r="AE134" s="11"/>
-      <c r="AF134" s="11"/>
-      <c r="AG134" s="11"/>
-      <c r="AH134" s="11"/>
-      <c r="AI134" s="11"/>
-      <c r="AJ134" s="11"/>
-      <c r="AK134" s="11"/>
-      <c r="AL134" s="11"/>
-      <c r="AM134" s="11"/>
-      <c r="AN134" s="11"/>
-      <c r="AO134" s="11"/>
-      <c r="AP134" s="11"/>
-      <c r="AQ134" s="11"/>
     </row>
     <row r="135" ht="16" customHeight="1">
       <c r="A135" s="11"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
+      <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -7554,34 +4685,13 @@
       <c r="T135" s="11"/>
       <c r="U135" s="11"/>
       <c r="V135" s="11"/>
-      <c r="W135" s="11"/>
-      <c r="X135" s="11"/>
-      <c r="Y135" s="11"/>
-      <c r="Z135" s="11"/>
-      <c r="AA135" s="11"/>
-      <c r="AB135" s="11"/>
-      <c r="AC135" s="11"/>
-      <c r="AD135" s="11"/>
-      <c r="AE135" s="11"/>
-      <c r="AF135" s="11"/>
-      <c r="AG135" s="11"/>
-      <c r="AH135" s="11"/>
-      <c r="AI135" s="11"/>
-      <c r="AJ135" s="11"/>
-      <c r="AK135" s="11"/>
-      <c r="AL135" s="11"/>
-      <c r="AM135" s="11"/>
-      <c r="AN135" s="11"/>
-      <c r="AO135" s="11"/>
-      <c r="AP135" s="11"/>
-      <c r="AQ135" s="11"/>
     </row>
     <row r="136" ht="16" customHeight="1">
       <c r="A136" s="11"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
+      <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
@@ -7599,34 +4709,13 @@
       <c r="T136" s="11"/>
       <c r="U136" s="11"/>
       <c r="V136" s="11"/>
-      <c r="W136" s="11"/>
-      <c r="X136" s="11"/>
-      <c r="Y136" s="11"/>
-      <c r="Z136" s="11"/>
-      <c r="AA136" s="11"/>
-      <c r="AB136" s="11"/>
-      <c r="AC136" s="11"/>
-      <c r="AD136" s="11"/>
-      <c r="AE136" s="11"/>
-      <c r="AF136" s="11"/>
-      <c r="AG136" s="11"/>
-      <c r="AH136" s="11"/>
-      <c r="AI136" s="11"/>
-      <c r="AJ136" s="11"/>
-      <c r="AK136" s="11"/>
-      <c r="AL136" s="11"/>
-      <c r="AM136" s="11"/>
-      <c r="AN136" s="11"/>
-      <c r="AO136" s="11"/>
-      <c r="AP136" s="11"/>
-      <c r="AQ136" s="11"/>
     </row>
     <row r="137" ht="16" customHeight="1">
       <c r="A137" s="11"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
+      <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
@@ -7644,34 +4733,13 @@
       <c r="T137" s="11"/>
       <c r="U137" s="11"/>
       <c r="V137" s="11"/>
-      <c r="W137" s="11"/>
-      <c r="X137" s="11"/>
-      <c r="Y137" s="11"/>
-      <c r="Z137" s="11"/>
-      <c r="AA137" s="11"/>
-      <c r="AB137" s="11"/>
-      <c r="AC137" s="11"/>
-      <c r="AD137" s="11"/>
-      <c r="AE137" s="11"/>
-      <c r="AF137" s="11"/>
-      <c r="AG137" s="11"/>
-      <c r="AH137" s="11"/>
-      <c r="AI137" s="11"/>
-      <c r="AJ137" s="11"/>
-      <c r="AK137" s="11"/>
-      <c r="AL137" s="11"/>
-      <c r="AM137" s="11"/>
-      <c r="AN137" s="11"/>
-      <c r="AO137" s="11"/>
-      <c r="AP137" s="11"/>
-      <c r="AQ137" s="11"/>
     </row>
     <row r="138" ht="16" customHeight="1">
       <c r="A138" s="11"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
+      <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
@@ -7689,34 +4757,13 @@
       <c r="T138" s="11"/>
       <c r="U138" s="11"/>
       <c r="V138" s="11"/>
-      <c r="W138" s="11"/>
-      <c r="X138" s="11"/>
-      <c r="Y138" s="11"/>
-      <c r="Z138" s="11"/>
-      <c r="AA138" s="11"/>
-      <c r="AB138" s="11"/>
-      <c r="AC138" s="11"/>
-      <c r="AD138" s="11"/>
-      <c r="AE138" s="11"/>
-      <c r="AF138" s="11"/>
-      <c r="AG138" s="11"/>
-      <c r="AH138" s="11"/>
-      <c r="AI138" s="11"/>
-      <c r="AJ138" s="11"/>
-      <c r="AK138" s="11"/>
-      <c r="AL138" s="11"/>
-      <c r="AM138" s="11"/>
-      <c r="AN138" s="11"/>
-      <c r="AO138" s="11"/>
-      <c r="AP138" s="11"/>
-      <c r="AQ138" s="11"/>
     </row>
     <row r="139" ht="16" customHeight="1">
       <c r="A139" s="11"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
+      <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -7734,34 +4781,13 @@
       <c r="T139" s="11"/>
       <c r="U139" s="11"/>
       <c r="V139" s="11"/>
-      <c r="W139" s="11"/>
-      <c r="X139" s="11"/>
-      <c r="Y139" s="11"/>
-      <c r="Z139" s="11"/>
-      <c r="AA139" s="11"/>
-      <c r="AB139" s="11"/>
-      <c r="AC139" s="11"/>
-      <c r="AD139" s="11"/>
-      <c r="AE139" s="11"/>
-      <c r="AF139" s="11"/>
-      <c r="AG139" s="11"/>
-      <c r="AH139" s="11"/>
-      <c r="AI139" s="11"/>
-      <c r="AJ139" s="11"/>
-      <c r="AK139" s="11"/>
-      <c r="AL139" s="11"/>
-      <c r="AM139" s="11"/>
-      <c r="AN139" s="11"/>
-      <c r="AO139" s="11"/>
-      <c r="AP139" s="11"/>
-      <c r="AQ139" s="11"/>
     </row>
     <row r="140" ht="16" customHeight="1">
       <c r="A140" s="11"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
+      <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
@@ -7779,34 +4805,13 @@
       <c r="T140" s="11"/>
       <c r="U140" s="11"/>
       <c r="V140" s="11"/>
-      <c r="W140" s="11"/>
-      <c r="X140" s="11"/>
-      <c r="Y140" s="11"/>
-      <c r="Z140" s="11"/>
-      <c r="AA140" s="11"/>
-      <c r="AB140" s="11"/>
-      <c r="AC140" s="11"/>
-      <c r="AD140" s="11"/>
-      <c r="AE140" s="11"/>
-      <c r="AF140" s="11"/>
-      <c r="AG140" s="11"/>
-      <c r="AH140" s="11"/>
-      <c r="AI140" s="11"/>
-      <c r="AJ140" s="11"/>
-      <c r="AK140" s="11"/>
-      <c r="AL140" s="11"/>
-      <c r="AM140" s="11"/>
-      <c r="AN140" s="11"/>
-      <c r="AO140" s="11"/>
-      <c r="AP140" s="11"/>
-      <c r="AQ140" s="11"/>
     </row>
     <row r="141" ht="16" customHeight="1">
       <c r="A141" s="11"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
+      <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
@@ -7824,34 +4829,13 @@
       <c r="T141" s="11"/>
       <c r="U141" s="11"/>
       <c r="V141" s="11"/>
-      <c r="W141" s="11"/>
-      <c r="X141" s="11"/>
-      <c r="Y141" s="11"/>
-      <c r="Z141" s="11"/>
-      <c r="AA141" s="11"/>
-      <c r="AB141" s="11"/>
-      <c r="AC141" s="11"/>
-      <c r="AD141" s="11"/>
-      <c r="AE141" s="11"/>
-      <c r="AF141" s="11"/>
-      <c r="AG141" s="11"/>
-      <c r="AH141" s="11"/>
-      <c r="AI141" s="11"/>
-      <c r="AJ141" s="11"/>
-      <c r="AK141" s="11"/>
-      <c r="AL141" s="11"/>
-      <c r="AM141" s="11"/>
-      <c r="AN141" s="11"/>
-      <c r="AO141" s="11"/>
-      <c r="AP141" s="11"/>
-      <c r="AQ141" s="11"/>
     </row>
     <row r="142" ht="16" customHeight="1">
       <c r="A142" s="11"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
+      <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
@@ -7869,34 +4853,13 @@
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
       <c r="V142" s="11"/>
-      <c r="W142" s="11"/>
-      <c r="X142" s="11"/>
-      <c r="Y142" s="11"/>
-      <c r="Z142" s="11"/>
-      <c r="AA142" s="11"/>
-      <c r="AB142" s="11"/>
-      <c r="AC142" s="11"/>
-      <c r="AD142" s="11"/>
-      <c r="AE142" s="11"/>
-      <c r="AF142" s="11"/>
-      <c r="AG142" s="11"/>
-      <c r="AH142" s="11"/>
-      <c r="AI142" s="11"/>
-      <c r="AJ142" s="11"/>
-      <c r="AK142" s="11"/>
-      <c r="AL142" s="11"/>
-      <c r="AM142" s="11"/>
-      <c r="AN142" s="11"/>
-      <c r="AO142" s="11"/>
-      <c r="AP142" s="11"/>
-      <c r="AQ142" s="11"/>
     </row>
     <row r="143" ht="16" customHeight="1">
       <c r="A143" s="11"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
+      <c r="E143" s="11"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
@@ -7914,34 +4877,13 @@
       <c r="T143" s="11"/>
       <c r="U143" s="11"/>
       <c r="V143" s="11"/>
-      <c r="W143" s="11"/>
-      <c r="X143" s="11"/>
-      <c r="Y143" s="11"/>
-      <c r="Z143" s="11"/>
-      <c r="AA143" s="11"/>
-      <c r="AB143" s="11"/>
-      <c r="AC143" s="11"/>
-      <c r="AD143" s="11"/>
-      <c r="AE143" s="11"/>
-      <c r="AF143" s="11"/>
-      <c r="AG143" s="11"/>
-      <c r="AH143" s="11"/>
-      <c r="AI143" s="11"/>
-      <c r="AJ143" s="11"/>
-      <c r="AK143" s="11"/>
-      <c r="AL143" s="11"/>
-      <c r="AM143" s="11"/>
-      <c r="AN143" s="11"/>
-      <c r="AO143" s="11"/>
-      <c r="AP143" s="11"/>
-      <c r="AQ143" s="11"/>
     </row>
     <row r="144" ht="16" customHeight="1">
       <c r="A144" s="11"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
+      <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
@@ -7959,34 +4901,13 @@
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
       <c r="V144" s="11"/>
-      <c r="W144" s="11"/>
-      <c r="X144" s="11"/>
-      <c r="Y144" s="11"/>
-      <c r="Z144" s="11"/>
-      <c r="AA144" s="11"/>
-      <c r="AB144" s="11"/>
-      <c r="AC144" s="11"/>
-      <c r="AD144" s="11"/>
-      <c r="AE144" s="11"/>
-      <c r="AF144" s="11"/>
-      <c r="AG144" s="11"/>
-      <c r="AH144" s="11"/>
-      <c r="AI144" s="11"/>
-      <c r="AJ144" s="11"/>
-      <c r="AK144" s="11"/>
-      <c r="AL144" s="11"/>
-      <c r="AM144" s="11"/>
-      <c r="AN144" s="11"/>
-      <c r="AO144" s="11"/>
-      <c r="AP144" s="11"/>
-      <c r="AQ144" s="11"/>
     </row>
     <row r="145" ht="16" customHeight="1">
       <c r="A145" s="11"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
+      <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
@@ -8004,34 +4925,13 @@
       <c r="T145" s="11"/>
       <c r="U145" s="11"/>
       <c r="V145" s="11"/>
-      <c r="W145" s="11"/>
-      <c r="X145" s="11"/>
-      <c r="Y145" s="11"/>
-      <c r="Z145" s="11"/>
-      <c r="AA145" s="11"/>
-      <c r="AB145" s="11"/>
-      <c r="AC145" s="11"/>
-      <c r="AD145" s="11"/>
-      <c r="AE145" s="11"/>
-      <c r="AF145" s="11"/>
-      <c r="AG145" s="11"/>
-      <c r="AH145" s="11"/>
-      <c r="AI145" s="11"/>
-      <c r="AJ145" s="11"/>
-      <c r="AK145" s="11"/>
-      <c r="AL145" s="11"/>
-      <c r="AM145" s="11"/>
-      <c r="AN145" s="11"/>
-      <c r="AO145" s="11"/>
-      <c r="AP145" s="11"/>
-      <c r="AQ145" s="11"/>
     </row>
     <row r="146" ht="16" customHeight="1">
       <c r="A146" s="11"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
+      <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
@@ -8049,34 +4949,13 @@
       <c r="T146" s="11"/>
       <c r="U146" s="11"/>
       <c r="V146" s="11"/>
-      <c r="W146" s="11"/>
-      <c r="X146" s="11"/>
-      <c r="Y146" s="11"/>
-      <c r="Z146" s="11"/>
-      <c r="AA146" s="11"/>
-      <c r="AB146" s="11"/>
-      <c r="AC146" s="11"/>
-      <c r="AD146" s="11"/>
-      <c r="AE146" s="11"/>
-      <c r="AF146" s="11"/>
-      <c r="AG146" s="11"/>
-      <c r="AH146" s="11"/>
-      <c r="AI146" s="11"/>
-      <c r="AJ146" s="11"/>
-      <c r="AK146" s="11"/>
-      <c r="AL146" s="11"/>
-      <c r="AM146" s="11"/>
-      <c r="AN146" s="11"/>
-      <c r="AO146" s="11"/>
-      <c r="AP146" s="11"/>
-      <c r="AQ146" s="11"/>
     </row>
     <row r="147" ht="16" customHeight="1">
       <c r="A147" s="11"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
+      <c r="E147" s="11"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
@@ -8094,34 +4973,13 @@
       <c r="T147" s="11"/>
       <c r="U147" s="11"/>
       <c r="V147" s="11"/>
-      <c r="W147" s="11"/>
-      <c r="X147" s="11"/>
-      <c r="Y147" s="11"/>
-      <c r="Z147" s="11"/>
-      <c r="AA147" s="11"/>
-      <c r="AB147" s="11"/>
-      <c r="AC147" s="11"/>
-      <c r="AD147" s="11"/>
-      <c r="AE147" s="11"/>
-      <c r="AF147" s="11"/>
-      <c r="AG147" s="11"/>
-      <c r="AH147" s="11"/>
-      <c r="AI147" s="11"/>
-      <c r="AJ147" s="11"/>
-      <c r="AK147" s="11"/>
-      <c r="AL147" s="11"/>
-      <c r="AM147" s="11"/>
-      <c r="AN147" s="11"/>
-      <c r="AO147" s="11"/>
-      <c r="AP147" s="11"/>
-      <c r="AQ147" s="11"/>
     </row>
     <row r="148" ht="16" customHeight="1">
       <c r="A148" s="11"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
+      <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
@@ -8139,34 +4997,13 @@
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
       <c r="V148" s="11"/>
-      <c r="W148" s="11"/>
-      <c r="X148" s="11"/>
-      <c r="Y148" s="11"/>
-      <c r="Z148" s="11"/>
-      <c r="AA148" s="11"/>
-      <c r="AB148" s="11"/>
-      <c r="AC148" s="11"/>
-      <c r="AD148" s="11"/>
-      <c r="AE148" s="11"/>
-      <c r="AF148" s="11"/>
-      <c r="AG148" s="11"/>
-      <c r="AH148" s="11"/>
-      <c r="AI148" s="11"/>
-      <c r="AJ148" s="11"/>
-      <c r="AK148" s="11"/>
-      <c r="AL148" s="11"/>
-      <c r="AM148" s="11"/>
-      <c r="AN148" s="11"/>
-      <c r="AO148" s="11"/>
-      <c r="AP148" s="11"/>
-      <c r="AQ148" s="11"/>
     </row>
     <row r="149" ht="16" customHeight="1">
       <c r="A149" s="11"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
+      <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
@@ -8184,34 +5021,13 @@
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
       <c r="V149" s="11"/>
-      <c r="W149" s="11"/>
-      <c r="X149" s="11"/>
-      <c r="Y149" s="11"/>
-      <c r="Z149" s="11"/>
-      <c r="AA149" s="11"/>
-      <c r="AB149" s="11"/>
-      <c r="AC149" s="11"/>
-      <c r="AD149" s="11"/>
-      <c r="AE149" s="11"/>
-      <c r="AF149" s="11"/>
-      <c r="AG149" s="11"/>
-      <c r="AH149" s="11"/>
-      <c r="AI149" s="11"/>
-      <c r="AJ149" s="11"/>
-      <c r="AK149" s="11"/>
-      <c r="AL149" s="11"/>
-      <c r="AM149" s="11"/>
-      <c r="AN149" s="11"/>
-      <c r="AO149" s="11"/>
-      <c r="AP149" s="11"/>
-      <c r="AQ149" s="11"/>
     </row>
     <row r="150" ht="16" customHeight="1">
       <c r="A150" s="11"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
+      <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
@@ -8229,34 +5045,13 @@
       <c r="T150" s="11"/>
       <c r="U150" s="11"/>
       <c r="V150" s="11"/>
-      <c r="W150" s="11"/>
-      <c r="X150" s="11"/>
-      <c r="Y150" s="11"/>
-      <c r="Z150" s="11"/>
-      <c r="AA150" s="11"/>
-      <c r="AB150" s="11"/>
-      <c r="AC150" s="11"/>
-      <c r="AD150" s="11"/>
-      <c r="AE150" s="11"/>
-      <c r="AF150" s="11"/>
-      <c r="AG150" s="11"/>
-      <c r="AH150" s="11"/>
-      <c r="AI150" s="11"/>
-      <c r="AJ150" s="11"/>
-      <c r="AK150" s="11"/>
-      <c r="AL150" s="11"/>
-      <c r="AM150" s="11"/>
-      <c r="AN150" s="11"/>
-      <c r="AO150" s="11"/>
-      <c r="AP150" s="11"/>
-      <c r="AQ150" s="11"/>
     </row>
     <row r="151" ht="16" customHeight="1">
       <c r="A151" s="11"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
+      <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
@@ -8274,34 +5069,13 @@
       <c r="T151" s="11"/>
       <c r="U151" s="11"/>
       <c r="V151" s="11"/>
-      <c r="W151" s="11"/>
-      <c r="X151" s="11"/>
-      <c r="Y151" s="11"/>
-      <c r="Z151" s="11"/>
-      <c r="AA151" s="11"/>
-      <c r="AB151" s="11"/>
-      <c r="AC151" s="11"/>
-      <c r="AD151" s="11"/>
-      <c r="AE151" s="11"/>
-      <c r="AF151" s="11"/>
-      <c r="AG151" s="11"/>
-      <c r="AH151" s="11"/>
-      <c r="AI151" s="11"/>
-      <c r="AJ151" s="11"/>
-      <c r="AK151" s="11"/>
-      <c r="AL151" s="11"/>
-      <c r="AM151" s="11"/>
-      <c r="AN151" s="11"/>
-      <c r="AO151" s="11"/>
-      <c r="AP151" s="11"/>
-      <c r="AQ151" s="11"/>
     </row>
     <row r="152" ht="16" customHeight="1">
       <c r="A152" s="11"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
+      <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
@@ -8319,34 +5093,13 @@
       <c r="T152" s="11"/>
       <c r="U152" s="11"/>
       <c r="V152" s="11"/>
-      <c r="W152" s="11"/>
-      <c r="X152" s="11"/>
-      <c r="Y152" s="11"/>
-      <c r="Z152" s="11"/>
-      <c r="AA152" s="11"/>
-      <c r="AB152" s="11"/>
-      <c r="AC152" s="11"/>
-      <c r="AD152" s="11"/>
-      <c r="AE152" s="11"/>
-      <c r="AF152" s="11"/>
-      <c r="AG152" s="11"/>
-      <c r="AH152" s="11"/>
-      <c r="AI152" s="11"/>
-      <c r="AJ152" s="11"/>
-      <c r="AK152" s="11"/>
-      <c r="AL152" s="11"/>
-      <c r="AM152" s="11"/>
-      <c r="AN152" s="11"/>
-      <c r="AO152" s="11"/>
-      <c r="AP152" s="11"/>
-      <c r="AQ152" s="11"/>
     </row>
     <row r="153" ht="16" customHeight="1">
       <c r="A153" s="11"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
+      <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
@@ -8364,34 +5117,13 @@
       <c r="T153" s="11"/>
       <c r="U153" s="11"/>
       <c r="V153" s="11"/>
-      <c r="W153" s="11"/>
-      <c r="X153" s="11"/>
-      <c r="Y153" s="11"/>
-      <c r="Z153" s="11"/>
-      <c r="AA153" s="11"/>
-      <c r="AB153" s="11"/>
-      <c r="AC153" s="11"/>
-      <c r="AD153" s="11"/>
-      <c r="AE153" s="11"/>
-      <c r="AF153" s="11"/>
-      <c r="AG153" s="11"/>
-      <c r="AH153" s="11"/>
-      <c r="AI153" s="11"/>
-      <c r="AJ153" s="11"/>
-      <c r="AK153" s="11"/>
-      <c r="AL153" s="11"/>
-      <c r="AM153" s="11"/>
-      <c r="AN153" s="11"/>
-      <c r="AO153" s="11"/>
-      <c r="AP153" s="11"/>
-      <c r="AQ153" s="11"/>
     </row>
     <row r="154" ht="16" customHeight="1">
       <c r="A154" s="11"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
+      <c r="E154" s="11"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
@@ -8409,34 +5141,13 @@
       <c r="T154" s="11"/>
       <c r="U154" s="11"/>
       <c r="V154" s="11"/>
-      <c r="W154" s="11"/>
-      <c r="X154" s="11"/>
-      <c r="Y154" s="11"/>
-      <c r="Z154" s="11"/>
-      <c r="AA154" s="11"/>
-      <c r="AB154" s="11"/>
-      <c r="AC154" s="11"/>
-      <c r="AD154" s="11"/>
-      <c r="AE154" s="11"/>
-      <c r="AF154" s="11"/>
-      <c r="AG154" s="11"/>
-      <c r="AH154" s="11"/>
-      <c r="AI154" s="11"/>
-      <c r="AJ154" s="11"/>
-      <c r="AK154" s="11"/>
-      <c r="AL154" s="11"/>
-      <c r="AM154" s="11"/>
-      <c r="AN154" s="11"/>
-      <c r="AO154" s="11"/>
-      <c r="AP154" s="11"/>
-      <c r="AQ154" s="11"/>
     </row>
     <row r="155" ht="16" customHeight="1">
       <c r="A155" s="11"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
+      <c r="E155" s="11"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
@@ -8454,34 +5165,13 @@
       <c r="T155" s="11"/>
       <c r="U155" s="11"/>
       <c r="V155" s="11"/>
-      <c r="W155" s="11"/>
-      <c r="X155" s="11"/>
-      <c r="Y155" s="11"/>
-      <c r="Z155" s="11"/>
-      <c r="AA155" s="11"/>
-      <c r="AB155" s="11"/>
-      <c r="AC155" s="11"/>
-      <c r="AD155" s="11"/>
-      <c r="AE155" s="11"/>
-      <c r="AF155" s="11"/>
-      <c r="AG155" s="11"/>
-      <c r="AH155" s="11"/>
-      <c r="AI155" s="11"/>
-      <c r="AJ155" s="11"/>
-      <c r="AK155" s="11"/>
-      <c r="AL155" s="11"/>
-      <c r="AM155" s="11"/>
-      <c r="AN155" s="11"/>
-      <c r="AO155" s="11"/>
-      <c r="AP155" s="11"/>
-      <c r="AQ155" s="11"/>
     </row>
     <row r="156" ht="16" customHeight="1">
       <c r="A156" s="11"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
+      <c r="E156" s="11"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -8499,34 +5189,13 @@
       <c r="T156" s="11"/>
       <c r="U156" s="11"/>
       <c r="V156" s="11"/>
-      <c r="W156" s="11"/>
-      <c r="X156" s="11"/>
-      <c r="Y156" s="11"/>
-      <c r="Z156" s="11"/>
-      <c r="AA156" s="11"/>
-      <c r="AB156" s="11"/>
-      <c r="AC156" s="11"/>
-      <c r="AD156" s="11"/>
-      <c r="AE156" s="11"/>
-      <c r="AF156" s="11"/>
-      <c r="AG156" s="11"/>
-      <c r="AH156" s="11"/>
-      <c r="AI156" s="11"/>
-      <c r="AJ156" s="11"/>
-      <c r="AK156" s="11"/>
-      <c r="AL156" s="11"/>
-      <c r="AM156" s="11"/>
-      <c r="AN156" s="11"/>
-      <c r="AO156" s="11"/>
-      <c r="AP156" s="11"/>
-      <c r="AQ156" s="11"/>
     </row>
     <row r="157" ht="16" customHeight="1">
       <c r="A157" s="11"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
+      <c r="E157" s="11"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -8544,34 +5213,13 @@
       <c r="T157" s="11"/>
       <c r="U157" s="11"/>
       <c r="V157" s="11"/>
-      <c r="W157" s="11"/>
-      <c r="X157" s="11"/>
-      <c r="Y157" s="11"/>
-      <c r="Z157" s="11"/>
-      <c r="AA157" s="11"/>
-      <c r="AB157" s="11"/>
-      <c r="AC157" s="11"/>
-      <c r="AD157" s="11"/>
-      <c r="AE157" s="11"/>
-      <c r="AF157" s="11"/>
-      <c r="AG157" s="11"/>
-      <c r="AH157" s="11"/>
-      <c r="AI157" s="11"/>
-      <c r="AJ157" s="11"/>
-      <c r="AK157" s="11"/>
-      <c r="AL157" s="11"/>
-      <c r="AM157" s="11"/>
-      <c r="AN157" s="11"/>
-      <c r="AO157" s="11"/>
-      <c r="AP157" s="11"/>
-      <c r="AQ157" s="11"/>
     </row>
     <row r="158" ht="16" customHeight="1">
       <c r="A158" s="11"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
+      <c r="E158" s="11"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
@@ -8589,34 +5237,13 @@
       <c r="T158" s="11"/>
       <c r="U158" s="11"/>
       <c r="V158" s="11"/>
-      <c r="W158" s="11"/>
-      <c r="X158" s="11"/>
-      <c r="Y158" s="11"/>
-      <c r="Z158" s="11"/>
-      <c r="AA158" s="11"/>
-      <c r="AB158" s="11"/>
-      <c r="AC158" s="11"/>
-      <c r="AD158" s="11"/>
-      <c r="AE158" s="11"/>
-      <c r="AF158" s="11"/>
-      <c r="AG158" s="11"/>
-      <c r="AH158" s="11"/>
-      <c r="AI158" s="11"/>
-      <c r="AJ158" s="11"/>
-      <c r="AK158" s="11"/>
-      <c r="AL158" s="11"/>
-      <c r="AM158" s="11"/>
-      <c r="AN158" s="11"/>
-      <c r="AO158" s="11"/>
-      <c r="AP158" s="11"/>
-      <c r="AQ158" s="11"/>
     </row>
     <row r="159" ht="16" customHeight="1">
       <c r="A159" s="11"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
+      <c r="E159" s="11"/>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
@@ -8634,34 +5261,13 @@
       <c r="T159" s="11"/>
       <c r="U159" s="11"/>
       <c r="V159" s="11"/>
-      <c r="W159" s="11"/>
-      <c r="X159" s="11"/>
-      <c r="Y159" s="11"/>
-      <c r="Z159" s="11"/>
-      <c r="AA159" s="11"/>
-      <c r="AB159" s="11"/>
-      <c r="AC159" s="11"/>
-      <c r="AD159" s="11"/>
-      <c r="AE159" s="11"/>
-      <c r="AF159" s="11"/>
-      <c r="AG159" s="11"/>
-      <c r="AH159" s="11"/>
-      <c r="AI159" s="11"/>
-      <c r="AJ159" s="11"/>
-      <c r="AK159" s="11"/>
-      <c r="AL159" s="11"/>
-      <c r="AM159" s="11"/>
-      <c r="AN159" s="11"/>
-      <c r="AO159" s="11"/>
-      <c r="AP159" s="11"/>
-      <c r="AQ159" s="11"/>
     </row>
     <row r="160" ht="16" customHeight="1">
       <c r="A160" s="11"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
+      <c r="E160" s="11"/>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
@@ -8679,34 +5285,13 @@
       <c r="T160" s="11"/>
       <c r="U160" s="11"/>
       <c r="V160" s="11"/>
-      <c r="W160" s="11"/>
-      <c r="X160" s="11"/>
-      <c r="Y160" s="11"/>
-      <c r="Z160" s="11"/>
-      <c r="AA160" s="11"/>
-      <c r="AB160" s="11"/>
-      <c r="AC160" s="11"/>
-      <c r="AD160" s="11"/>
-      <c r="AE160" s="11"/>
-      <c r="AF160" s="11"/>
-      <c r="AG160" s="11"/>
-      <c r="AH160" s="11"/>
-      <c r="AI160" s="11"/>
-      <c r="AJ160" s="11"/>
-      <c r="AK160" s="11"/>
-      <c r="AL160" s="11"/>
-      <c r="AM160" s="11"/>
-      <c r="AN160" s="11"/>
-      <c r="AO160" s="11"/>
-      <c r="AP160" s="11"/>
-      <c r="AQ160" s="11"/>
     </row>
     <row r="161" ht="16" customHeight="1">
       <c r="A161" s="11"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
+      <c r="E161" s="11"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
@@ -8724,34 +5309,13 @@
       <c r="T161" s="11"/>
       <c r="U161" s="11"/>
       <c r="V161" s="11"/>
-      <c r="W161" s="11"/>
-      <c r="X161" s="11"/>
-      <c r="Y161" s="11"/>
-      <c r="Z161" s="11"/>
-      <c r="AA161" s="11"/>
-      <c r="AB161" s="11"/>
-      <c r="AC161" s="11"/>
-      <c r="AD161" s="11"/>
-      <c r="AE161" s="11"/>
-      <c r="AF161" s="11"/>
-      <c r="AG161" s="11"/>
-      <c r="AH161" s="11"/>
-      <c r="AI161" s="11"/>
-      <c r="AJ161" s="11"/>
-      <c r="AK161" s="11"/>
-      <c r="AL161" s="11"/>
-      <c r="AM161" s="11"/>
-      <c r="AN161" s="11"/>
-      <c r="AO161" s="11"/>
-      <c r="AP161" s="11"/>
-      <c r="AQ161" s="11"/>
     </row>
     <row r="162" ht="16" customHeight="1">
       <c r="A162" s="11"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
+      <c r="E162" s="11"/>
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
@@ -8769,34 +5333,13 @@
       <c r="T162" s="11"/>
       <c r="U162" s="11"/>
       <c r="V162" s="11"/>
-      <c r="W162" s="11"/>
-      <c r="X162" s="11"/>
-      <c r="Y162" s="11"/>
-      <c r="Z162" s="11"/>
-      <c r="AA162" s="11"/>
-      <c r="AB162" s="11"/>
-      <c r="AC162" s="11"/>
-      <c r="AD162" s="11"/>
-      <c r="AE162" s="11"/>
-      <c r="AF162" s="11"/>
-      <c r="AG162" s="11"/>
-      <c r="AH162" s="11"/>
-      <c r="AI162" s="11"/>
-      <c r="AJ162" s="11"/>
-      <c r="AK162" s="11"/>
-      <c r="AL162" s="11"/>
-      <c r="AM162" s="11"/>
-      <c r="AN162" s="11"/>
-      <c r="AO162" s="11"/>
-      <c r="AP162" s="11"/>
-      <c r="AQ162" s="11"/>
     </row>
     <row r="163" ht="16" customHeight="1">
       <c r="A163" s="11"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
+      <c r="E163" s="11"/>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
@@ -8814,34 +5357,13 @@
       <c r="T163" s="11"/>
       <c r="U163" s="11"/>
       <c r="V163" s="11"/>
-      <c r="W163" s="11"/>
-      <c r="X163" s="11"/>
-      <c r="Y163" s="11"/>
-      <c r="Z163" s="11"/>
-      <c r="AA163" s="11"/>
-      <c r="AB163" s="11"/>
-      <c r="AC163" s="11"/>
-      <c r="AD163" s="11"/>
-      <c r="AE163" s="11"/>
-      <c r="AF163" s="11"/>
-      <c r="AG163" s="11"/>
-      <c r="AH163" s="11"/>
-      <c r="AI163" s="11"/>
-      <c r="AJ163" s="11"/>
-      <c r="AK163" s="11"/>
-      <c r="AL163" s="11"/>
-      <c r="AM163" s="11"/>
-      <c r="AN163" s="11"/>
-      <c r="AO163" s="11"/>
-      <c r="AP163" s="11"/>
-      <c r="AQ163" s="11"/>
     </row>
     <row r="164" ht="16" customHeight="1">
       <c r="A164" s="11"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
+      <c r="E164" s="11"/>
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -8859,34 +5381,13 @@
       <c r="T164" s="11"/>
       <c r="U164" s="11"/>
       <c r="V164" s="11"/>
-      <c r="W164" s="11"/>
-      <c r="X164" s="11"/>
-      <c r="Y164" s="11"/>
-      <c r="Z164" s="11"/>
-      <c r="AA164" s="11"/>
-      <c r="AB164" s="11"/>
-      <c r="AC164" s="11"/>
-      <c r="AD164" s="11"/>
-      <c r="AE164" s="11"/>
-      <c r="AF164" s="11"/>
-      <c r="AG164" s="11"/>
-      <c r="AH164" s="11"/>
-      <c r="AI164" s="11"/>
-      <c r="AJ164" s="11"/>
-      <c r="AK164" s="11"/>
-      <c r="AL164" s="11"/>
-      <c r="AM164" s="11"/>
-      <c r="AN164" s="11"/>
-      <c r="AO164" s="11"/>
-      <c r="AP164" s="11"/>
-      <c r="AQ164" s="11"/>
     </row>
     <row r="165" ht="16" customHeight="1">
       <c r="A165" s="11"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
       <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
+      <c r="E165" s="11"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -8904,34 +5405,13 @@
       <c r="T165" s="11"/>
       <c r="U165" s="11"/>
       <c r="V165" s="11"/>
-      <c r="W165" s="11"/>
-      <c r="X165" s="11"/>
-      <c r="Y165" s="11"/>
-      <c r="Z165" s="11"/>
-      <c r="AA165" s="11"/>
-      <c r="AB165" s="11"/>
-      <c r="AC165" s="11"/>
-      <c r="AD165" s="11"/>
-      <c r="AE165" s="11"/>
-      <c r="AF165" s="11"/>
-      <c r="AG165" s="11"/>
-      <c r="AH165" s="11"/>
-      <c r="AI165" s="11"/>
-      <c r="AJ165" s="11"/>
-      <c r="AK165" s="11"/>
-      <c r="AL165" s="11"/>
-      <c r="AM165" s="11"/>
-      <c r="AN165" s="11"/>
-      <c r="AO165" s="11"/>
-      <c r="AP165" s="11"/>
-      <c r="AQ165" s="11"/>
     </row>
     <row r="166" ht="16" customHeight="1">
       <c r="A166" s="11"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
+      <c r="E166" s="11"/>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
@@ -8949,34 +5429,13 @@
       <c r="T166" s="11"/>
       <c r="U166" s="11"/>
       <c r="V166" s="11"/>
-      <c r="W166" s="11"/>
-      <c r="X166" s="11"/>
-      <c r="Y166" s="11"/>
-      <c r="Z166" s="11"/>
-      <c r="AA166" s="11"/>
-      <c r="AB166" s="11"/>
-      <c r="AC166" s="11"/>
-      <c r="AD166" s="11"/>
-      <c r="AE166" s="11"/>
-      <c r="AF166" s="11"/>
-      <c r="AG166" s="11"/>
-      <c r="AH166" s="11"/>
-      <c r="AI166" s="11"/>
-      <c r="AJ166" s="11"/>
-      <c r="AK166" s="11"/>
-      <c r="AL166" s="11"/>
-      <c r="AM166" s="11"/>
-      <c r="AN166" s="11"/>
-      <c r="AO166" s="11"/>
-      <c r="AP166" s="11"/>
-      <c r="AQ166" s="11"/>
     </row>
     <row r="167" ht="16" customHeight="1">
       <c r="A167" s="11"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
+      <c r="E167" s="11"/>
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
@@ -8994,34 +5453,13 @@
       <c r="T167" s="11"/>
       <c r="U167" s="11"/>
       <c r="V167" s="11"/>
-      <c r="W167" s="11"/>
-      <c r="X167" s="11"/>
-      <c r="Y167" s="11"/>
-      <c r="Z167" s="11"/>
-      <c r="AA167" s="11"/>
-      <c r="AB167" s="11"/>
-      <c r="AC167" s="11"/>
-      <c r="AD167" s="11"/>
-      <c r="AE167" s="11"/>
-      <c r="AF167" s="11"/>
-      <c r="AG167" s="11"/>
-      <c r="AH167" s="11"/>
-      <c r="AI167" s="11"/>
-      <c r="AJ167" s="11"/>
-      <c r="AK167" s="11"/>
-      <c r="AL167" s="11"/>
-      <c r="AM167" s="11"/>
-      <c r="AN167" s="11"/>
-      <c r="AO167" s="11"/>
-      <c r="AP167" s="11"/>
-      <c r="AQ167" s="11"/>
     </row>
     <row r="168" ht="16" customHeight="1">
       <c r="A168" s="11"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
+      <c r="E168" s="11"/>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
@@ -9039,34 +5477,13 @@
       <c r="T168" s="11"/>
       <c r="U168" s="11"/>
       <c r="V168" s="11"/>
-      <c r="W168" s="11"/>
-      <c r="X168" s="11"/>
-      <c r="Y168" s="11"/>
-      <c r="Z168" s="11"/>
-      <c r="AA168" s="11"/>
-      <c r="AB168" s="11"/>
-      <c r="AC168" s="11"/>
-      <c r="AD168" s="11"/>
-      <c r="AE168" s="11"/>
-      <c r="AF168" s="11"/>
-      <c r="AG168" s="11"/>
-      <c r="AH168" s="11"/>
-      <c r="AI168" s="11"/>
-      <c r="AJ168" s="11"/>
-      <c r="AK168" s="11"/>
-      <c r="AL168" s="11"/>
-      <c r="AM168" s="11"/>
-      <c r="AN168" s="11"/>
-      <c r="AO168" s="11"/>
-      <c r="AP168" s="11"/>
-      <c r="AQ168" s="11"/>
     </row>
     <row r="169" ht="16" customHeight="1">
       <c r="A169" s="11"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
       <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
+      <c r="E169" s="11"/>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
@@ -9084,68 +5501,30 @@
       <c r="T169" s="11"/>
       <c r="U169" s="11"/>
       <c r="V169" s="11"/>
-      <c r="W169" s="11"/>
-      <c r="X169" s="11"/>
-      <c r="Y169" s="11"/>
-      <c r="Z169" s="11"/>
-      <c r="AA169" s="11"/>
-      <c r="AB169" s="11"/>
-      <c r="AC169" s="11"/>
-      <c r="AD169" s="11"/>
-      <c r="AE169" s="11"/>
-      <c r="AF169" s="11"/>
-      <c r="AG169" s="11"/>
-      <c r="AH169" s="11"/>
-      <c r="AI169" s="11"/>
-      <c r="AJ169" s="11"/>
-      <c r="AK169" s="11"/>
-      <c r="AL169" s="11"/>
-      <c r="AM169" s="11"/>
-      <c r="AN169" s="11"/>
-      <c r="AO169" s="11"/>
-      <c r="AP169" s="11"/>
-      <c r="AQ169" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AN2:AN3"/>
+  <mergeCells count="16">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="A1:AQ1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/statistics/export/templates/global_month_template.xlsx
+++ b/statistics/export/templates/global_month_template.xlsx
@@ -25,7 +25,7 @@
     <t>新增地市</t>
   </si>
   <si>
-    <t>同比增长率</t>
+    <t>环比增长率</t>
   </si>
   <si>
     <t>学校总数</t>
@@ -122,7 +122,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="14"/>
@@ -242,34 +242,34 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -342,14 +342,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office 主题">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office 主题">
@@ -530,9 +530,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
             <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
@@ -1101,9 +1101,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
             <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
@@ -1359,31 +1359,31 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8571" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8672" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8672" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8672" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8672" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8672" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8672" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8672" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8672" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8672" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8672" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.8672" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.8672" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.8672" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.8672" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.8672" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.8672" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.8672" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.8672" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.8672" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.8672" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.8672" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.8672" style="1" customWidth="1"/>
-    <col min="23" max="256" width="10.8672" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.8516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.8516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.8516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.8516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.8516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.8516" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.8516" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.8516" style="1" customWidth="1"/>
+    <col min="23" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
@@ -5504,27 +5504,27 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/statistics/export/templates/global_month_template.xlsx
+++ b/statistics/export/templates/global_month_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>全局市场9月报数据</t>
   </si>
@@ -22,48 +22,169 @@
     <t>地市总数</t>
   </si>
   <si>
-    <t>新增地市</t>
-  </si>
-  <si>
-    <t>环比增长率</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>新增地市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月/本月</t>
+    </r>
   </si>
   <si>
     <t>学校总数</t>
   </si>
   <si>
-    <t>新增学校</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>新增学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月/本月</t>
+    </r>
   </si>
   <si>
-    <t>考试使用总数</t>
+    <t>考试总数</t>
   </si>
   <si>
-    <t>新增考试次数</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>新增考试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月/本月</t>
+    </r>
   </si>
   <si>
-    <t>单词使用总数</t>
+    <t>单词总数</t>
   </si>
   <si>
-    <t>新增单词使用</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>新增单词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>上月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>本月</t>
+    </r>
   </si>
   <si>
-    <t>阅读使用次数总数</t>
+    <t>阅读总数</t>
   </si>
   <si>
-    <t>新增阅读使用</t>
-  </si>
-  <si>
-    <t>平均绑定率</t>
-  </si>
-  <si>
-    <t>新增家长数量</t>
-  </si>
-  <si>
-    <t>付费总数</t>
-  </si>
-  <si>
-    <t>新增付费</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>新增阅读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <b val="1"/>
@@ -82,7 +203,28 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>上月</t>
+      <t>图像总数</t>
+    </r>
+  </si>
+  <si>
+    <t>新增图像 +上月/本月</t>
+  </si>
+  <si>
+    <t>绑定总数</t>
+  </si>
+  <si>
+    <t>绑定率</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>新增绑定</t>
     </r>
     <r>
       <rPr>
@@ -90,7 +232,8 @@
         <color indexed="8"/>
         <rFont val="宋体"/>
       </rPr>
-      <t xml:space="preserve">	</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -99,11 +242,15 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>本月</t>
+      <t>上月/本月</t>
     </r>
   </si>
   <si>
-    <t>上月/本月</t>
+    <t>付费总数</t>
+  </si>
+  <si>
+    <t>新增付费 +上月/本月</t>
   </si>
 </sst>
 </file>
@@ -530,10 +677,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1101,10 +1248,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1355,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V169"/>
+  <dimension ref="A1:R169"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1379,11 +1526,7 @@
     <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.8516" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.8516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.8516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.8516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.8516" style="1" customWidth="1"/>
-    <col min="23" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="19" max="256" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
@@ -1394,23 +1537,19 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
+      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="O1" s="4"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="5">
@@ -1432,91 +1571,61 @@
         <v>6</v>
       </c>
       <c r="G2" t="s" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="s" s="5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R2" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="T2" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="U2" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="V2" t="s" s="5">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" t="s" s="5">
-        <v>17</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
-      <c r="I3" t="s" s="5">
-        <v>17</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" t="s" s="5">
-        <v>18</v>
-      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="6"/>
-      <c r="R3" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="V3" s="6"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" ht="13" customHeight="1">
       <c r="A4" s="7"/>
@@ -1537,10 +1646,6 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
     </row>
     <row r="5" ht="13" customHeight="1">
       <c r="A5" s="9"/>
@@ -1561,16 +1666,12 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -1585,16 +1686,12 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -1609,16 +1706,12 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1633,16 +1726,12 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1657,16 +1746,12 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1681,16 +1766,12 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1705,16 +1786,12 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1729,16 +1806,12 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1753,16 +1826,12 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1777,16 +1846,12 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -1801,16 +1866,12 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1825,16 +1886,12 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1849,16 +1906,12 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -1873,16 +1926,12 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
     </row>
     <row r="19" ht="16" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -1897,16 +1946,12 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1921,16 +1966,12 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1945,16 +1986,12 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1969,16 +2006,12 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -1993,16 +2026,12 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -2017,16 +2046,12 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -2041,16 +2066,12 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -2065,16 +2086,12 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
     </row>
     <row r="27" ht="16" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -2089,16 +2106,12 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -2113,16 +2126,12 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -2137,16 +2146,12 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -2161,16 +2166,12 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
     </row>
     <row r="31" ht="16" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -2185,16 +2186,12 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
     </row>
     <row r="32" ht="16" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -2209,16 +2206,12 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
     </row>
     <row r="33" ht="16" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2233,16 +2226,12 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -2257,16 +2246,12 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -2281,16 +2266,12 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -2305,16 +2286,12 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -2329,16 +2306,12 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -2353,16 +2326,12 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -2377,16 +2346,12 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -2401,16 +2366,12 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -2425,16 +2386,12 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -2449,16 +2406,12 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -2473,16 +2426,12 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -2497,16 +2446,12 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -2521,16 +2466,12 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -2545,16 +2486,12 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -2569,16 +2506,12 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -2593,16 +2526,12 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -2617,16 +2546,12 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -2641,16 +2566,12 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
     </row>
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -2665,16 +2586,12 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -2689,16 +2606,12 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
     </row>
     <row r="53" ht="16" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -2713,16 +2626,12 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
     </row>
     <row r="54" ht="16" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -2737,16 +2646,12 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -2761,16 +2666,12 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -2785,16 +2686,12 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
     </row>
     <row r="57" ht="16" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
@@ -2809,16 +2706,12 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
     </row>
     <row r="58" ht="16" customHeight="1">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -2833,16 +2726,12 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
     </row>
     <row r="59" ht="16" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -2857,16 +2746,12 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
@@ -2881,16 +2766,12 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
@@ -2905,16 +2786,12 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
     </row>
     <row r="62" ht="16" customHeight="1">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -2929,16 +2806,12 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
     </row>
     <row r="63" ht="16" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
@@ -2953,16 +2826,12 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
     </row>
     <row r="64" ht="16" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
@@ -2977,16 +2846,12 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
@@ -3001,16 +2866,12 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
     </row>
     <row r="66" ht="16" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
@@ -3025,16 +2886,12 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
     </row>
     <row r="67" ht="16" customHeight="1">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -3049,16 +2906,12 @@
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
     </row>
     <row r="68" ht="16" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -3073,16 +2926,12 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
     </row>
     <row r="69" ht="16" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
@@ -3097,16 +2946,12 @@
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
     </row>
     <row r="70" ht="16" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
@@ -3121,16 +2966,12 @@
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
-      <c r="V70" s="11"/>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -3145,16 +2986,12 @@
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
     </row>
     <row r="72" ht="16" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
@@ -3169,16 +3006,12 @@
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
     </row>
     <row r="73" ht="16" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
@@ -3193,16 +3026,12 @@
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
     </row>
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
@@ -3217,16 +3046,12 @@
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
     </row>
     <row r="75" ht="16" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
@@ -3241,16 +3066,12 @@
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
     </row>
     <row r="76" ht="16" customHeight="1">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -3265,16 +3086,12 @@
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
     </row>
     <row r="77" ht="16" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
@@ -3289,16 +3106,12 @@
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
     </row>
     <row r="78" ht="16" customHeight="1">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
@@ -3313,16 +3126,12 @@
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
     </row>
     <row r="79" ht="16" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
+      <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
@@ -3337,16 +3146,12 @@
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
-      <c r="V79" s="11"/>
     </row>
     <row r="80" ht="16" customHeight="1">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
@@ -3361,16 +3166,12 @@
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11"/>
-      <c r="V80" s="11"/>
     </row>
     <row r="81" ht="16" customHeight="1">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
+      <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
@@ -3385,16 +3186,12 @@
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
     </row>
     <row r="82" ht="16" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
@@ -3409,16 +3206,12 @@
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11"/>
-      <c r="V82" s="11"/>
     </row>
     <row r="83" ht="16" customHeight="1">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
@@ -3433,16 +3226,12 @@
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
     </row>
     <row r="84" ht="16" customHeight="1">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -3457,16 +3246,12 @@
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
-      <c r="U84" s="11"/>
-      <c r="V84" s="11"/>
     </row>
     <row r="85" ht="16" customHeight="1">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
@@ -3481,16 +3266,12 @@
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11"/>
-      <c r="V85" s="11"/>
     </row>
     <row r="86" ht="16" customHeight="1">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -3505,16 +3286,12 @@
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
     </row>
     <row r="87" ht="16" customHeight="1">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
@@ -3529,16 +3306,12 @@
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
     </row>
     <row r="88" ht="16" customHeight="1">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
@@ -3553,16 +3326,12 @@
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
@@ -3577,16 +3346,12 @@
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
     </row>
     <row r="90" ht="16" customHeight="1">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
+      <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
@@ -3601,16 +3366,12 @@
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
     </row>
     <row r="91" ht="16" customHeight="1">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
+      <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
@@ -3625,16 +3386,12 @@
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11"/>
-      <c r="V91" s="11"/>
     </row>
     <row r="92" ht="16" customHeight="1">
       <c r="A92" s="11"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
+      <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
@@ -3649,16 +3406,12 @@
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
     </row>
     <row r="93" ht="16" customHeight="1">
       <c r="A93" s="11"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
+      <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
@@ -3673,16 +3426,12 @@
       <c r="P93" s="11"/>
       <c r="Q93" s="11"/>
       <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
-      <c r="U93" s="11"/>
-      <c r="V93" s="11"/>
     </row>
     <row r="94" ht="16" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
@@ -3697,16 +3446,12 @@
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="11"/>
-      <c r="V94" s="11"/>
     </row>
     <row r="95" ht="16" customHeight="1">
       <c r="A95" s="11"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
+      <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
@@ -3721,16 +3466,12 @@
       <c r="P95" s="11"/>
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11"/>
-      <c r="U95" s="11"/>
-      <c r="V95" s="11"/>
     </row>
     <row r="96" ht="16" customHeight="1">
       <c r="A96" s="11"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
@@ -3745,16 +3486,12 @@
       <c r="P96" s="11"/>
       <c r="Q96" s="11"/>
       <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11"/>
-      <c r="V96" s="11"/>
     </row>
     <row r="97" ht="16" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
+      <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
@@ -3769,16 +3506,12 @@
       <c r="P97" s="11"/>
       <c r="Q97" s="11"/>
       <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
-      <c r="U97" s="11"/>
-      <c r="V97" s="11"/>
     </row>
     <row r="98" ht="16" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
+      <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
@@ -3793,16 +3526,12 @@
       <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11"/>
-      <c r="U98" s="11"/>
-      <c r="V98" s="11"/>
     </row>
     <row r="99" ht="16" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
+      <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
@@ -3817,16 +3546,12 @@
       <c r="P99" s="11"/>
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11"/>
-      <c r="U99" s="11"/>
-      <c r="V99" s="11"/>
     </row>
     <row r="100" ht="16" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
+      <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
@@ -3841,16 +3566,12 @@
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11"/>
-      <c r="U100" s="11"/>
-      <c r="V100" s="11"/>
     </row>
     <row r="101" ht="16" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
+      <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
@@ -3865,16 +3586,12 @@
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
       <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
-      <c r="U101" s="11"/>
-      <c r="V101" s="11"/>
     </row>
     <row r="102" ht="16" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
+      <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
@@ -3889,16 +3606,12 @@
       <c r="P102" s="11"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
-      <c r="U102" s="11"/>
-      <c r="V102" s="11"/>
     </row>
     <row r="103" ht="16" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
+      <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
@@ -3913,16 +3626,12 @@
       <c r="P103" s="11"/>
       <c r="Q103" s="11"/>
       <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11"/>
-      <c r="U103" s="11"/>
-      <c r="V103" s="11"/>
     </row>
     <row r="104" ht="16" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
+      <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
@@ -3937,16 +3646,12 @@
       <c r="P104" s="11"/>
       <c r="Q104" s="11"/>
       <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11"/>
-      <c r="V104" s="11"/>
     </row>
     <row r="105" ht="16" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
+      <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
@@ -3961,16 +3666,12 @@
       <c r="P105" s="11"/>
       <c r="Q105" s="11"/>
       <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11"/>
-      <c r="V105" s="11"/>
     </row>
     <row r="106" ht="16" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
+      <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
@@ -3985,16 +3686,12 @@
       <c r="P106" s="11"/>
       <c r="Q106" s="11"/>
       <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11"/>
-      <c r="U106" s="11"/>
-      <c r="V106" s="11"/>
     </row>
     <row r="107" ht="16" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
+      <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
@@ -4009,16 +3706,12 @@
       <c r="P107" s="11"/>
       <c r="Q107" s="11"/>
       <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11"/>
-      <c r="U107" s="11"/>
-      <c r="V107" s="11"/>
     </row>
     <row r="108" ht="16" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
+      <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
@@ -4033,16 +3726,12 @@
       <c r="P108" s="11"/>
       <c r="Q108" s="11"/>
       <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11"/>
-      <c r="U108" s="11"/>
-      <c r="V108" s="11"/>
     </row>
     <row r="109" ht="16" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
+      <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
@@ -4057,16 +3746,12 @@
       <c r="P109" s="11"/>
       <c r="Q109" s="11"/>
       <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11"/>
-      <c r="U109" s="11"/>
-      <c r="V109" s="11"/>
     </row>
     <row r="110" ht="16" customHeight="1">
       <c r="A110" s="11"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
+      <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
@@ -4081,16 +3766,12 @@
       <c r="P110" s="11"/>
       <c r="Q110" s="11"/>
       <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11"/>
-      <c r="U110" s="11"/>
-      <c r="V110" s="11"/>
     </row>
     <row r="111" ht="16" customHeight="1">
       <c r="A111" s="11"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
+      <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
@@ -4105,16 +3786,12 @@
       <c r="P111" s="11"/>
       <c r="Q111" s="11"/>
       <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11"/>
-      <c r="U111" s="11"/>
-      <c r="V111" s="11"/>
     </row>
     <row r="112" ht="16" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
+      <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
@@ -4129,16 +3806,12 @@
       <c r="P112" s="11"/>
       <c r="Q112" s="11"/>
       <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11"/>
-      <c r="U112" s="11"/>
-      <c r="V112" s="11"/>
     </row>
     <row r="113" ht="16" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
+      <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
@@ -4153,16 +3826,12 @@
       <c r="P113" s="11"/>
       <c r="Q113" s="11"/>
       <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11"/>
-      <c r="U113" s="11"/>
-      <c r="V113" s="11"/>
     </row>
     <row r="114" ht="16" customHeight="1">
       <c r="A114" s="11"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
+      <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
@@ -4177,16 +3846,12 @@
       <c r="P114" s="11"/>
       <c r="Q114" s="11"/>
       <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11"/>
-      <c r="U114" s="11"/>
-      <c r="V114" s="11"/>
     </row>
     <row r="115" ht="16" customHeight="1">
       <c r="A115" s="11"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
+      <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
@@ -4201,16 +3866,12 @@
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11"/>
-      <c r="V115" s="11"/>
     </row>
     <row r="116" ht="16" customHeight="1">
       <c r="A116" s="11"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
+      <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
@@ -4225,16 +3886,12 @@
       <c r="P116" s="11"/>
       <c r="Q116" s="11"/>
       <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11"/>
-      <c r="U116" s="11"/>
-      <c r="V116" s="11"/>
     </row>
     <row r="117" ht="16" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
+      <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
@@ -4249,16 +3906,12 @@
       <c r="P117" s="11"/>
       <c r="Q117" s="11"/>
       <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11"/>
-      <c r="U117" s="11"/>
-      <c r="V117" s="11"/>
     </row>
     <row r="118" ht="16" customHeight="1">
       <c r="A118" s="11"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
+      <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
@@ -4273,16 +3926,12 @@
       <c r="P118" s="11"/>
       <c r="Q118" s="11"/>
       <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
-      <c r="T118" s="11"/>
-      <c r="U118" s="11"/>
-      <c r="V118" s="11"/>
     </row>
     <row r="119" ht="16" customHeight="1">
       <c r="A119" s="11"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
+      <c r="D119" s="11"/>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
@@ -4297,16 +3946,12 @@
       <c r="P119" s="11"/>
       <c r="Q119" s="11"/>
       <c r="R119" s="11"/>
-      <c r="S119" s="11"/>
-      <c r="T119" s="11"/>
-      <c r="U119" s="11"/>
-      <c r="V119" s="11"/>
     </row>
     <row r="120" ht="16" customHeight="1">
       <c r="A120" s="11"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
+      <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
@@ -4321,16 +3966,12 @@
       <c r="P120" s="11"/>
       <c r="Q120" s="11"/>
       <c r="R120" s="11"/>
-      <c r="S120" s="11"/>
-      <c r="T120" s="11"/>
-      <c r="U120" s="11"/>
-      <c r="V120" s="11"/>
     </row>
     <row r="121" ht="16" customHeight="1">
       <c r="A121" s="11"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
+      <c r="D121" s="11"/>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
@@ -4345,16 +3986,12 @@
       <c r="P121" s="11"/>
       <c r="Q121" s="11"/>
       <c r="R121" s="11"/>
-      <c r="S121" s="11"/>
-      <c r="T121" s="11"/>
-      <c r="U121" s="11"/>
-      <c r="V121" s="11"/>
     </row>
     <row r="122" ht="16" customHeight="1">
       <c r="A122" s="11"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
+      <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
@@ -4369,16 +4006,12 @@
       <c r="P122" s="11"/>
       <c r="Q122" s="11"/>
       <c r="R122" s="11"/>
-      <c r="S122" s="11"/>
-      <c r="T122" s="11"/>
-      <c r="U122" s="11"/>
-      <c r="V122" s="11"/>
     </row>
     <row r="123" ht="16" customHeight="1">
       <c r="A123" s="11"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
+      <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
@@ -4393,16 +4026,12 @@
       <c r="P123" s="11"/>
       <c r="Q123" s="11"/>
       <c r="R123" s="11"/>
-      <c r="S123" s="11"/>
-      <c r="T123" s="11"/>
-      <c r="U123" s="11"/>
-      <c r="V123" s="11"/>
     </row>
     <row r="124" ht="16" customHeight="1">
       <c r="A124" s="11"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
+      <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
@@ -4417,16 +4046,12 @@
       <c r="P124" s="11"/>
       <c r="Q124" s="11"/>
       <c r="R124" s="11"/>
-      <c r="S124" s="11"/>
-      <c r="T124" s="11"/>
-      <c r="U124" s="11"/>
-      <c r="V124" s="11"/>
     </row>
     <row r="125" ht="16" customHeight="1">
       <c r="A125" s="11"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
+      <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
@@ -4441,16 +4066,12 @@
       <c r="P125" s="11"/>
       <c r="Q125" s="11"/>
       <c r="R125" s="11"/>
-      <c r="S125" s="11"/>
-      <c r="T125" s="11"/>
-      <c r="U125" s="11"/>
-      <c r="V125" s="11"/>
     </row>
     <row r="126" ht="16" customHeight="1">
       <c r="A126" s="11"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
+      <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
@@ -4465,16 +4086,12 @@
       <c r="P126" s="11"/>
       <c r="Q126" s="11"/>
       <c r="R126" s="11"/>
-      <c r="S126" s="11"/>
-      <c r="T126" s="11"/>
-      <c r="U126" s="11"/>
-      <c r="V126" s="11"/>
     </row>
     <row r="127" ht="16" customHeight="1">
       <c r="A127" s="11"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
+      <c r="D127" s="11"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
@@ -4489,16 +4106,12 @@
       <c r="P127" s="11"/>
       <c r="Q127" s="11"/>
       <c r="R127" s="11"/>
-      <c r="S127" s="11"/>
-      <c r="T127" s="11"/>
-      <c r="U127" s="11"/>
-      <c r="V127" s="11"/>
     </row>
     <row r="128" ht="16" customHeight="1">
       <c r="A128" s="11"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
+      <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
@@ -4513,16 +4126,12 @@
       <c r="P128" s="11"/>
       <c r="Q128" s="11"/>
       <c r="R128" s="11"/>
-      <c r="S128" s="11"/>
-      <c r="T128" s="11"/>
-      <c r="U128" s="11"/>
-      <c r="V128" s="11"/>
     </row>
     <row r="129" ht="16" customHeight="1">
       <c r="A129" s="11"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
+      <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
@@ -4537,16 +4146,12 @@
       <c r="P129" s="11"/>
       <c r="Q129" s="11"/>
       <c r="R129" s="11"/>
-      <c r="S129" s="11"/>
-      <c r="T129" s="11"/>
-      <c r="U129" s="11"/>
-      <c r="V129" s="11"/>
     </row>
     <row r="130" ht="16" customHeight="1">
       <c r="A130" s="11"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
+      <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
@@ -4561,16 +4166,12 @@
       <c r="P130" s="11"/>
       <c r="Q130" s="11"/>
       <c r="R130" s="11"/>
-      <c r="S130" s="11"/>
-      <c r="T130" s="11"/>
-      <c r="U130" s="11"/>
-      <c r="V130" s="11"/>
     </row>
     <row r="131" ht="16" customHeight="1">
       <c r="A131" s="11"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
+      <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
@@ -4585,16 +4186,12 @@
       <c r="P131" s="11"/>
       <c r="Q131" s="11"/>
       <c r="R131" s="11"/>
-      <c r="S131" s="11"/>
-      <c r="T131" s="11"/>
-      <c r="U131" s="11"/>
-      <c r="V131" s="11"/>
     </row>
     <row r="132" ht="16" customHeight="1">
       <c r="A132" s="11"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
+      <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
@@ -4609,16 +4206,12 @@
       <c r="P132" s="11"/>
       <c r="Q132" s="11"/>
       <c r="R132" s="11"/>
-      <c r="S132" s="11"/>
-      <c r="T132" s="11"/>
-      <c r="U132" s="11"/>
-      <c r="V132" s="11"/>
     </row>
     <row r="133" ht="16" customHeight="1">
       <c r="A133" s="11"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
+      <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
@@ -4633,16 +4226,12 @@
       <c r="P133" s="11"/>
       <c r="Q133" s="11"/>
       <c r="R133" s="11"/>
-      <c r="S133" s="11"/>
-      <c r="T133" s="11"/>
-      <c r="U133" s="11"/>
-      <c r="V133" s="11"/>
     </row>
     <row r="134" ht="16" customHeight="1">
       <c r="A134" s="11"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
+      <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
@@ -4657,16 +4246,12 @@
       <c r="P134" s="11"/>
       <c r="Q134" s="11"/>
       <c r="R134" s="11"/>
-      <c r="S134" s="11"/>
-      <c r="T134" s="11"/>
-      <c r="U134" s="11"/>
-      <c r="V134" s="11"/>
     </row>
     <row r="135" ht="16" customHeight="1">
       <c r="A135" s="11"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
+      <c r="D135" s="11"/>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
@@ -4681,16 +4266,12 @@
       <c r="P135" s="11"/>
       <c r="Q135" s="11"/>
       <c r="R135" s="11"/>
-      <c r="S135" s="11"/>
-      <c r="T135" s="11"/>
-      <c r="U135" s="11"/>
-      <c r="V135" s="11"/>
     </row>
     <row r="136" ht="16" customHeight="1">
       <c r="A136" s="11"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
+      <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
@@ -4705,16 +4286,12 @@
       <c r="P136" s="11"/>
       <c r="Q136" s="11"/>
       <c r="R136" s="11"/>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11"/>
-      <c r="U136" s="11"/>
-      <c r="V136" s="11"/>
     </row>
     <row r="137" ht="16" customHeight="1">
       <c r="A137" s="11"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
+      <c r="D137" s="11"/>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
@@ -4729,16 +4306,12 @@
       <c r="P137" s="11"/>
       <c r="Q137" s="11"/>
       <c r="R137" s="11"/>
-      <c r="S137" s="11"/>
-      <c r="T137" s="11"/>
-      <c r="U137" s="11"/>
-      <c r="V137" s="11"/>
     </row>
     <row r="138" ht="16" customHeight="1">
       <c r="A138" s="11"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
+      <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
@@ -4753,16 +4326,12 @@
       <c r="P138" s="11"/>
       <c r="Q138" s="11"/>
       <c r="R138" s="11"/>
-      <c r="S138" s="11"/>
-      <c r="T138" s="11"/>
-      <c r="U138" s="11"/>
-      <c r="V138" s="11"/>
     </row>
     <row r="139" ht="16" customHeight="1">
       <c r="A139" s="11"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+      <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
@@ -4777,16 +4346,12 @@
       <c r="P139" s="11"/>
       <c r="Q139" s="11"/>
       <c r="R139" s="11"/>
-      <c r="S139" s="11"/>
-      <c r="T139" s="11"/>
-      <c r="U139" s="11"/>
-      <c r="V139" s="11"/>
     </row>
     <row r="140" ht="16" customHeight="1">
       <c r="A140" s="11"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
+      <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
@@ -4801,16 +4366,12 @@
       <c r="P140" s="11"/>
       <c r="Q140" s="11"/>
       <c r="R140" s="11"/>
-      <c r="S140" s="11"/>
-      <c r="T140" s="11"/>
-      <c r="U140" s="11"/>
-      <c r="V140" s="11"/>
     </row>
     <row r="141" ht="16" customHeight="1">
       <c r="A141" s="11"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
+      <c r="D141" s="11"/>
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
@@ -4825,16 +4386,12 @@
       <c r="P141" s="11"/>
       <c r="Q141" s="11"/>
       <c r="R141" s="11"/>
-      <c r="S141" s="11"/>
-      <c r="T141" s="11"/>
-      <c r="U141" s="11"/>
-      <c r="V141" s="11"/>
     </row>
     <row r="142" ht="16" customHeight="1">
       <c r="A142" s="11"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
+      <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
@@ -4849,16 +4406,12 @@
       <c r="P142" s="11"/>
       <c r="Q142" s="11"/>
       <c r="R142" s="11"/>
-      <c r="S142" s="11"/>
-      <c r="T142" s="11"/>
-      <c r="U142" s="11"/>
-      <c r="V142" s="11"/>
     </row>
     <row r="143" ht="16" customHeight="1">
       <c r="A143" s="11"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
+      <c r="D143" s="11"/>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
@@ -4873,16 +4426,12 @@
       <c r="P143" s="11"/>
       <c r="Q143" s="11"/>
       <c r="R143" s="11"/>
-      <c r="S143" s="11"/>
-      <c r="T143" s="11"/>
-      <c r="U143" s="11"/>
-      <c r="V143" s="11"/>
     </row>
     <row r="144" ht="16" customHeight="1">
       <c r="A144" s="11"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
+      <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
@@ -4897,16 +4446,12 @@
       <c r="P144" s="11"/>
       <c r="Q144" s="11"/>
       <c r="R144" s="11"/>
-      <c r="S144" s="11"/>
-      <c r="T144" s="11"/>
-      <c r="U144" s="11"/>
-      <c r="V144" s="11"/>
     </row>
     <row r="145" ht="16" customHeight="1">
       <c r="A145" s="11"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
+      <c r="D145" s="11"/>
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
@@ -4921,16 +4466,12 @@
       <c r="P145" s="11"/>
       <c r="Q145" s="11"/>
       <c r="R145" s="11"/>
-      <c r="S145" s="11"/>
-      <c r="T145" s="11"/>
-      <c r="U145" s="11"/>
-      <c r="V145" s="11"/>
     </row>
     <row r="146" ht="16" customHeight="1">
       <c r="A146" s="11"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
+      <c r="D146" s="11"/>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
@@ -4945,16 +4486,12 @@
       <c r="P146" s="11"/>
       <c r="Q146" s="11"/>
       <c r="R146" s="11"/>
-      <c r="S146" s="11"/>
-      <c r="T146" s="11"/>
-      <c r="U146" s="11"/>
-      <c r="V146" s="11"/>
     </row>
     <row r="147" ht="16" customHeight="1">
       <c r="A147" s="11"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
+      <c r="D147" s="11"/>
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
@@ -4969,16 +4506,12 @@
       <c r="P147" s="11"/>
       <c r="Q147" s="11"/>
       <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
-      <c r="T147" s="11"/>
-      <c r="U147" s="11"/>
-      <c r="V147" s="11"/>
     </row>
     <row r="148" ht="16" customHeight="1">
       <c r="A148" s="11"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
+      <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
@@ -4993,16 +4526,12 @@
       <c r="P148" s="11"/>
       <c r="Q148" s="11"/>
       <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11"/>
-      <c r="U148" s="11"/>
-      <c r="V148" s="11"/>
     </row>
     <row r="149" ht="16" customHeight="1">
       <c r="A149" s="11"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
+      <c r="D149" s="11"/>
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
@@ -5017,16 +4546,12 @@
       <c r="P149" s="11"/>
       <c r="Q149" s="11"/>
       <c r="R149" s="11"/>
-      <c r="S149" s="11"/>
-      <c r="T149" s="11"/>
-      <c r="U149" s="11"/>
-      <c r="V149" s="11"/>
     </row>
     <row r="150" ht="16" customHeight="1">
       <c r="A150" s="11"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
+      <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
@@ -5041,16 +4566,12 @@
       <c r="P150" s="11"/>
       <c r="Q150" s="11"/>
       <c r="R150" s="11"/>
-      <c r="S150" s="11"/>
-      <c r="T150" s="11"/>
-      <c r="U150" s="11"/>
-      <c r="V150" s="11"/>
     </row>
     <row r="151" ht="16" customHeight="1">
       <c r="A151" s="11"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
+      <c r="D151" s="11"/>
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
@@ -5065,16 +4586,12 @@
       <c r="P151" s="11"/>
       <c r="Q151" s="11"/>
       <c r="R151" s="11"/>
-      <c r="S151" s="11"/>
-      <c r="T151" s="11"/>
-      <c r="U151" s="11"/>
-      <c r="V151" s="11"/>
     </row>
     <row r="152" ht="16" customHeight="1">
       <c r="A152" s="11"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
+      <c r="D152" s="11"/>
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
@@ -5089,16 +4606,12 @@
       <c r="P152" s="11"/>
       <c r="Q152" s="11"/>
       <c r="R152" s="11"/>
-      <c r="S152" s="11"/>
-      <c r="T152" s="11"/>
-      <c r="U152" s="11"/>
-      <c r="V152" s="11"/>
     </row>
     <row r="153" ht="16" customHeight="1">
       <c r="A153" s="11"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
+      <c r="D153" s="11"/>
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
@@ -5113,16 +4626,12 @@
       <c r="P153" s="11"/>
       <c r="Q153" s="11"/>
       <c r="R153" s="11"/>
-      <c r="S153" s="11"/>
-      <c r="T153" s="11"/>
-      <c r="U153" s="11"/>
-      <c r="V153" s="11"/>
     </row>
     <row r="154" ht="16" customHeight="1">
       <c r="A154" s="11"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
+      <c r="D154" s="11"/>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
@@ -5137,16 +4646,12 @@
       <c r="P154" s="11"/>
       <c r="Q154" s="11"/>
       <c r="R154" s="11"/>
-      <c r="S154" s="11"/>
-      <c r="T154" s="11"/>
-      <c r="U154" s="11"/>
-      <c r="V154" s="11"/>
     </row>
     <row r="155" ht="16" customHeight="1">
       <c r="A155" s="11"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
+      <c r="D155" s="11"/>
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
@@ -5161,16 +4666,12 @@
       <c r="P155" s="11"/>
       <c r="Q155" s="11"/>
       <c r="R155" s="11"/>
-      <c r="S155" s="11"/>
-      <c r="T155" s="11"/>
-      <c r="U155" s="11"/>
-      <c r="V155" s="11"/>
     </row>
     <row r="156" ht="16" customHeight="1">
       <c r="A156" s="11"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
+      <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
@@ -5185,16 +4686,12 @@
       <c r="P156" s="11"/>
       <c r="Q156" s="11"/>
       <c r="R156" s="11"/>
-      <c r="S156" s="11"/>
-      <c r="T156" s="11"/>
-      <c r="U156" s="11"/>
-      <c r="V156" s="11"/>
     </row>
     <row r="157" ht="16" customHeight="1">
       <c r="A157" s="11"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
+      <c r="D157" s="11"/>
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
@@ -5209,16 +4706,12 @@
       <c r="P157" s="11"/>
       <c r="Q157" s="11"/>
       <c r="R157" s="11"/>
-      <c r="S157" s="11"/>
-      <c r="T157" s="11"/>
-      <c r="U157" s="11"/>
-      <c r="V157" s="11"/>
     </row>
     <row r="158" ht="16" customHeight="1">
       <c r="A158" s="11"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
+      <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
@@ -5233,16 +4726,12 @@
       <c r="P158" s="11"/>
       <c r="Q158" s="11"/>
       <c r="R158" s="11"/>
-      <c r="S158" s="11"/>
-      <c r="T158" s="11"/>
-      <c r="U158" s="11"/>
-      <c r="V158" s="11"/>
     </row>
     <row r="159" ht="16" customHeight="1">
       <c r="A159" s="11"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
+      <c r="D159" s="11"/>
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
@@ -5257,16 +4746,12 @@
       <c r="P159" s="11"/>
       <c r="Q159" s="11"/>
       <c r="R159" s="11"/>
-      <c r="S159" s="11"/>
-      <c r="T159" s="11"/>
-      <c r="U159" s="11"/>
-      <c r="V159" s="11"/>
     </row>
     <row r="160" ht="16" customHeight="1">
       <c r="A160" s="11"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
+      <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
@@ -5281,16 +4766,12 @@
       <c r="P160" s="11"/>
       <c r="Q160" s="11"/>
       <c r="R160" s="11"/>
-      <c r="S160" s="11"/>
-      <c r="T160" s="11"/>
-      <c r="U160" s="11"/>
-      <c r="V160" s="11"/>
     </row>
     <row r="161" ht="16" customHeight="1">
       <c r="A161" s="11"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
+      <c r="D161" s="11"/>
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
@@ -5305,16 +4786,12 @@
       <c r="P161" s="11"/>
       <c r="Q161" s="11"/>
       <c r="R161" s="11"/>
-      <c r="S161" s="11"/>
-      <c r="T161" s="11"/>
-      <c r="U161" s="11"/>
-      <c r="V161" s="11"/>
     </row>
     <row r="162" ht="16" customHeight="1">
       <c r="A162" s="11"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
+      <c r="D162" s="11"/>
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
@@ -5329,16 +4806,12 @@
       <c r="P162" s="11"/>
       <c r="Q162" s="11"/>
       <c r="R162" s="11"/>
-      <c r="S162" s="11"/>
-      <c r="T162" s="11"/>
-      <c r="U162" s="11"/>
-      <c r="V162" s="11"/>
     </row>
     <row r="163" ht="16" customHeight="1">
       <c r="A163" s="11"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
+      <c r="D163" s="11"/>
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
@@ -5353,16 +4826,12 @@
       <c r="P163" s="11"/>
       <c r="Q163" s="11"/>
       <c r="R163" s="11"/>
-      <c r="S163" s="11"/>
-      <c r="T163" s="11"/>
-      <c r="U163" s="11"/>
-      <c r="V163" s="11"/>
     </row>
     <row r="164" ht="16" customHeight="1">
       <c r="A164" s="11"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
+      <c r="D164" s="11"/>
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
@@ -5377,16 +4846,12 @@
       <c r="P164" s="11"/>
       <c r="Q164" s="11"/>
       <c r="R164" s="11"/>
-      <c r="S164" s="11"/>
-      <c r="T164" s="11"/>
-      <c r="U164" s="11"/>
-      <c r="V164" s="11"/>
     </row>
     <row r="165" ht="16" customHeight="1">
       <c r="A165" s="11"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
-      <c r="D165" s="12"/>
+      <c r="D165" s="11"/>
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
@@ -5401,16 +4866,12 @@
       <c r="P165" s="11"/>
       <c r="Q165" s="11"/>
       <c r="R165" s="11"/>
-      <c r="S165" s="11"/>
-      <c r="T165" s="11"/>
-      <c r="U165" s="11"/>
-      <c r="V165" s="11"/>
     </row>
     <row r="166" ht="16" customHeight="1">
       <c r="A166" s="11"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
+      <c r="D166" s="11"/>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
@@ -5425,16 +4886,12 @@
       <c r="P166" s="11"/>
       <c r="Q166" s="11"/>
       <c r="R166" s="11"/>
-      <c r="S166" s="11"/>
-      <c r="T166" s="11"/>
-      <c r="U166" s="11"/>
-      <c r="V166" s="11"/>
     </row>
     <row r="167" ht="16" customHeight="1">
       <c r="A167" s="11"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
+      <c r="D167" s="11"/>
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
@@ -5449,16 +4906,12 @@
       <c r="P167" s="11"/>
       <c r="Q167" s="11"/>
       <c r="R167" s="11"/>
-      <c r="S167" s="11"/>
-      <c r="T167" s="11"/>
-      <c r="U167" s="11"/>
-      <c r="V167" s="11"/>
     </row>
     <row r="168" ht="16" customHeight="1">
       <c r="A168" s="11"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
+      <c r="D168" s="11"/>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
@@ -5473,16 +4926,12 @@
       <c r="P168" s="11"/>
       <c r="Q168" s="11"/>
       <c r="R168" s="11"/>
-      <c r="S168" s="11"/>
-      <c r="T168" s="11"/>
-      <c r="U168" s="11"/>
-      <c r="V168" s="11"/>
     </row>
     <row r="169" ht="16" customHeight="1">
       <c r="A169" s="11"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
+      <c r="D169" s="11"/>
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
@@ -5497,29 +4946,28 @@
       <c r="P169" s="11"/>
       <c r="Q169" s="11"/>
       <c r="R169" s="11"/>
-      <c r="S169" s="11"/>
-      <c r="T169" s="11"/>
-      <c r="U169" s="11"/>
-      <c r="V169" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="S2:S3"/>
+  <mergeCells count="19">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
